--- a/7. Statistic Analysis/Datasheets/JAVA/Tool Types/APR_Efficiency - true search.xlsx
+++ b/7. Statistic Analysis/Datasheets/JAVA/Tool Types/APR_Efficiency - true search.xlsx
@@ -2573,3118 +2573,3118 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n" s="0">
-        <v/>
+      <c r="A21" t="s" s="0">
+        <v>67</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v/>
+        <v>2.830000</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v/>
+        <v>79.980000</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v/>
+        <v>18.670000</v>
       </c>
       <c r="E21" t="n" s="0">
-        <v/>
+        <v>6.580000</v>
       </c>
       <c r="F21" t="n" s="0">
-        <v/>
+        <v>9.830000</v>
       </c>
       <c r="G21" t="n" s="0">
-        <v/>
+        <v>2.710000</v>
       </c>
       <c r="H21" t="n" s="0">
-        <v/>
+        <v>9.290000</v>
       </c>
       <c r="I21" t="n" s="0">
-        <v/>
+        <v>28.500000</v>
       </c>
       <c r="J21" t="n" s="0">
-        <v/>
+        <v>46.750000</v>
       </c>
       <c r="K21" t="n" s="0">
-        <v/>
+        <v>0.045000</v>
       </c>
       <c r="L21" t="n" s="0">
-        <v/>
+        <v>0.023000</v>
       </c>
       <c r="M21" t="n" s="0">
-        <v/>
+        <v>0.790000</v>
       </c>
       <c r="N21" t="n" s="0">
-        <v/>
+        <v>0.044000</v>
       </c>
       <c r="O21" t="n" s="0">
         <v/>
       </c>
-      <c r="P21" t="n" s="0">
-        <v/>
+      <c r="P21" t="s" s="0">
+        <v>68</v>
       </c>
       <c r="Q21" t="n" s="0">
-        <v/>
+        <v>2.830000</v>
       </c>
       <c r="R21" t="n" s="0">
-        <v/>
+        <v>79.980000</v>
       </c>
       <c r="S21" t="n" s="0">
-        <v/>
+        <v>18.640000</v>
       </c>
       <c r="T21" t="n" s="0">
-        <v/>
+        <v>6.590000</v>
       </c>
       <c r="U21" t="n" s="0">
-        <v/>
+        <v>9.820000</v>
       </c>
       <c r="V21" t="n" s="0">
-        <v/>
+        <v>2.710000</v>
       </c>
       <c r="W21" t="n" s="0">
-        <v/>
+        <v>9.300000</v>
       </c>
       <c r="X21" t="n" s="0">
-        <v/>
+        <v>28.450000</v>
       </c>
       <c r="Y21" t="n" s="0">
-        <v/>
+        <v>46.820000</v>
       </c>
       <c r="Z21" t="n" s="0">
-        <v/>
+        <v>0.045000</v>
       </c>
       <c r="AA21" t="n" s="0">
-        <v/>
+        <v>0.023000</v>
       </c>
       <c r="AB21" t="n" s="0">
-        <v/>
+        <v>0.790000</v>
       </c>
       <c r="AC21" t="n" s="0">
-        <v/>
+        <v>0.044000</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n" s="0">
-        <v/>
+      <c r="A22" t="s" s="0">
+        <v>69</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v/>
+        <v>2.240000</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v/>
+        <v>83.680000</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v/>
+        <v>9.380000</v>
       </c>
       <c r="E22" t="n" s="0">
-        <v/>
+        <v>4.290000</v>
       </c>
       <c r="F22" t="n" s="0">
-        <v/>
+        <v>5.710000</v>
       </c>
       <c r="G22" t="n" s="0">
-        <v/>
+        <v>2.590000</v>
       </c>
       <c r="H22" t="n" s="0">
-        <v/>
+        <v>6.880000</v>
       </c>
       <c r="I22" t="n" s="0">
-        <v/>
+        <v>15.090000</v>
       </c>
       <c r="J22" t="n" s="0">
-        <v/>
+        <v>28.850000</v>
       </c>
       <c r="K22" t="n" s="0">
-        <v/>
+        <v>0.059000</v>
       </c>
       <c r="L22" t="n" s="0">
-        <v/>
+        <v>0.015000</v>
       </c>
       <c r="M22" t="n" s="0">
-        <v/>
+        <v>0.830000</v>
       </c>
       <c r="N22" t="n" s="0">
-        <v/>
+        <v>0.046000</v>
       </c>
       <c r="O22" t="n" s="0">
         <v/>
       </c>
-      <c r="P22" t="n" s="0">
-        <v/>
+      <c r="P22" t="s" s="0">
+        <v>70</v>
       </c>
       <c r="Q22" t="n" s="0">
-        <v/>
+        <v>2.240000</v>
       </c>
       <c r="R22" t="n" s="0">
-        <v/>
+        <v>83.710000</v>
       </c>
       <c r="S22" t="n" s="0">
-        <v/>
+        <v>9.290000</v>
       </c>
       <c r="T22" t="n" s="0">
-        <v/>
+        <v>4.320000</v>
       </c>
       <c r="U22" t="n" s="0">
-        <v/>
+        <v>5.740000</v>
       </c>
       <c r="V22" t="n" s="0">
-        <v/>
+        <v>2.680000</v>
       </c>
       <c r="W22" t="n" s="0">
-        <v/>
+        <v>7.000000</v>
       </c>
       <c r="X22" t="n" s="0">
-        <v/>
+        <v>15.030000</v>
       </c>
       <c r="Y22" t="n" s="0">
-        <v/>
+        <v>29.460000</v>
       </c>
       <c r="Z22" t="n" s="0">
-        <v/>
+        <v>0.059000</v>
       </c>
       <c r="AA22" t="n" s="0">
-        <v/>
+        <v>0.015000</v>
       </c>
       <c r="AB22" t="n" s="0">
-        <v/>
+        <v>0.830000</v>
       </c>
       <c r="AC22" t="n" s="0">
-        <v/>
+        <v>0.046000</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n" s="0">
-        <v/>
+      <c r="A23" t="s" s="0">
+        <v>71</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v/>
+        <v>5.230000</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v/>
+        <v>69.680000</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v/>
+        <v>18.450000</v>
       </c>
       <c r="E23" t="n" s="0">
-        <v/>
+        <v>6.650000</v>
       </c>
       <c r="F23" t="n" s="0">
-        <v/>
+        <v>18.290000</v>
       </c>
       <c r="G23" t="n" s="0">
-        <v/>
+        <v>5.000000</v>
       </c>
       <c r="H23" t="n" s="0">
-        <v/>
+        <v>11.650000</v>
       </c>
       <c r="I23" t="n" s="0">
-        <v/>
+        <v>36.740000</v>
       </c>
       <c r="J23" t="n" s="0">
-        <v/>
+        <v>61.550000</v>
       </c>
       <c r="K23" t="n" s="0">
-        <v/>
+        <v>0.390000</v>
       </c>
       <c r="L23" t="n" s="0">
-        <v/>
+        <v>0.019000</v>
       </c>
       <c r="M23" t="n" s="0">
-        <v/>
+        <v>5.900000</v>
       </c>
       <c r="N23" t="n" s="0">
-        <v/>
+        <v>0.330000</v>
       </c>
       <c r="O23" t="n" s="0">
         <v/>
       </c>
-      <c r="P23" t="n" s="0">
-        <v/>
+      <c r="P23" t="s" s="0">
+        <v>72</v>
       </c>
       <c r="Q23" t="n" s="0">
-        <v/>
+        <v>5.190000</v>
       </c>
       <c r="R23" t="n" s="0">
-        <v/>
+        <v>69.710000</v>
       </c>
       <c r="S23" t="n" s="0">
-        <v/>
+        <v>18.420000</v>
       </c>
       <c r="T23" t="n" s="0">
-        <v/>
+        <v>6.680000</v>
       </c>
       <c r="U23" t="n" s="0">
-        <v/>
+        <v>18.160000</v>
       </c>
       <c r="V23" t="n" s="0">
-        <v/>
+        <v>5.000000</v>
       </c>
       <c r="W23" t="n" s="0">
-        <v/>
+        <v>11.680000</v>
       </c>
       <c r="X23" t="n" s="0">
-        <v/>
+        <v>36.580000</v>
       </c>
       <c r="Y23" t="n" s="0">
-        <v/>
+        <v>61.640000</v>
       </c>
       <c r="Z23" t="n" s="0">
-        <v/>
+        <v>0.390000</v>
       </c>
       <c r="AA23" t="n" s="0">
-        <v/>
+        <v>0.019000</v>
       </c>
       <c r="AB23" t="n" s="0">
-        <v/>
+        <v>5.900000</v>
       </c>
       <c r="AC23" t="n" s="0">
-        <v/>
+        <v>0.330000</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n" s="0">
-        <v/>
+      <c r="A24" t="s" s="0">
+        <v>73</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v/>
+        <v>5.310000</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v/>
+        <v>78.870000</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v/>
+        <v>10.350000</v>
       </c>
       <c r="E24" t="n" s="0">
-        <v/>
+        <v>4.910000</v>
       </c>
       <c r="F24" t="n" s="0">
-        <v/>
+        <v>11.470000</v>
       </c>
       <c r="G24" t="n" s="0">
-        <v/>
+        <v>3.350000</v>
       </c>
       <c r="H24" t="n" s="0">
-        <v/>
+        <v>8.260000</v>
       </c>
       <c r="I24" t="n" s="0">
-        <v/>
+        <v>21.820000</v>
       </c>
       <c r="J24" t="n" s="0">
-        <v/>
+        <v>37.210000</v>
       </c>
       <c r="K24" t="n" s="0">
-        <v/>
+        <v>2.330000</v>
       </c>
       <c r="L24" t="n" s="0">
-        <v/>
+        <v>0.038000</v>
       </c>
       <c r="M24" t="n" s="0">
-        <v/>
+        <v>384.740000</v>
       </c>
       <c r="N24" t="n" s="0">
-        <v/>
+        <v>21.370000</v>
       </c>
       <c r="O24" t="n" s="0">
         <v/>
       </c>
-      <c r="P24" t="n" s="0">
-        <v/>
+      <c r="P24" t="s" s="0">
+        <v>74</v>
       </c>
       <c r="Q24" t="n" s="0">
-        <v/>
+        <v>5.320000</v>
       </c>
       <c r="R24" t="n" s="0">
-        <v/>
+        <v>78.850000</v>
       </c>
       <c r="S24" t="n" s="0">
-        <v/>
+        <v>10.360000</v>
       </c>
       <c r="T24" t="n" s="0">
-        <v/>
+        <v>4.920000</v>
       </c>
       <c r="U24" t="n" s="0">
-        <v/>
+        <v>11.480000</v>
       </c>
       <c r="V24" t="n" s="0">
-        <v/>
+        <v>3.360000</v>
       </c>
       <c r="W24" t="n" s="0">
-        <v/>
+        <v>8.270000</v>
       </c>
       <c r="X24" t="n" s="0">
-        <v/>
+        <v>21.830000</v>
       </c>
       <c r="Y24" t="n" s="0">
-        <v/>
+        <v>37.280000</v>
       </c>
       <c r="Z24" t="n" s="0">
-        <v/>
+        <v>2.330000</v>
       </c>
       <c r="AA24" t="n" s="0">
-        <v/>
+        <v>0.038000</v>
       </c>
       <c r="AB24" t="n" s="0">
-        <v/>
+        <v>384.740000</v>
       </c>
       <c r="AC24" t="n" s="0">
-        <v/>
+        <v>21.370000</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n" s="0">
-        <v/>
+      <c r="A25" t="s" s="0">
+        <v>75</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v/>
+        <v>5.870000</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v/>
+        <v>71.270000</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v/>
+        <v>24.470000</v>
       </c>
       <c r="E25" t="n" s="0">
-        <v/>
+        <v>7.130000</v>
       </c>
       <c r="F25" t="n" s="0">
-        <v/>
+        <v>20.440000</v>
       </c>
       <c r="G25" t="n" s="0">
-        <v/>
+        <v>4.560000</v>
       </c>
       <c r="H25" t="n" s="0">
-        <v/>
+        <v>11.690000</v>
       </c>
       <c r="I25" t="n" s="0">
-        <v/>
+        <v>44.910000</v>
       </c>
       <c r="J25" t="n" s="0">
-        <v/>
+        <v>65.190000</v>
       </c>
       <c r="K25" t="n" s="0">
-        <v/>
+        <v>0.110000</v>
       </c>
       <c r="L25" t="n" s="0">
-        <v/>
+        <v>0.003000</v>
       </c>
       <c r="M25" t="n" s="0">
-        <v/>
+        <v>1.960000</v>
       </c>
       <c r="N25" t="n" s="0">
-        <v/>
+        <v>0.110000</v>
       </c>
       <c r="O25" t="n" s="0">
         <v/>
       </c>
-      <c r="P25" t="n" s="0">
-        <v/>
+      <c r="P25" t="s" s="0">
+        <v>76</v>
       </c>
       <c r="Q25" t="n" s="0">
-        <v/>
+        <v>5.890000</v>
       </c>
       <c r="R25" t="n" s="0">
-        <v/>
+        <v>70.850000</v>
       </c>
       <c r="S25" t="n" s="0">
-        <v/>
+        <v>24.620000</v>
       </c>
       <c r="T25" t="n" s="0">
-        <v/>
+        <v>7.160000</v>
       </c>
       <c r="U25" t="n" s="0">
-        <v/>
+        <v>20.490000</v>
       </c>
       <c r="V25" t="n" s="0">
-        <v/>
+        <v>4.550000</v>
       </c>
       <c r="W25" t="n" s="0">
-        <v/>
+        <v>11.710000</v>
       </c>
       <c r="X25" t="n" s="0">
-        <v/>
+        <v>45.110000</v>
       </c>
       <c r="Y25" t="n" s="0">
-        <v/>
+        <v>65.390000</v>
       </c>
       <c r="Z25" t="n" s="0">
-        <v/>
+        <v>0.110000</v>
       </c>
       <c r="AA25" t="n" s="0">
-        <v/>
+        <v>0.003000</v>
       </c>
       <c r="AB25" t="n" s="0">
-        <v/>
+        <v>1.960000</v>
       </c>
       <c r="AC25" t="n" s="0">
-        <v/>
+        <v>0.110000</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n" s="0">
-        <v/>
+      <c r="A26" t="s" s="0">
+        <v>77</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v/>
+        <v>4.190000</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v/>
+        <v>72.120000</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v/>
+        <v>19.930000</v>
       </c>
       <c r="E26" t="n" s="0">
-        <v/>
+        <v>8.910000</v>
       </c>
       <c r="F26" t="n" s="0">
-        <v/>
+        <v>18.600000</v>
       </c>
       <c r="G26" t="n" s="0">
-        <v/>
+        <v>4.510000</v>
       </c>
       <c r="H26" t="n" s="0">
-        <v/>
+        <v>13.420000</v>
       </c>
       <c r="I26" t="n" s="0">
-        <v/>
+        <v>38.530000</v>
       </c>
       <c r="J26" t="n" s="0">
-        <v/>
+        <v>73.860000</v>
       </c>
       <c r="K26" t="n" s="0">
-        <v/>
+        <v>0.700000</v>
       </c>
       <c r="L26" t="n" s="0">
-        <v/>
+        <v>0.070000</v>
       </c>
       <c r="M26" t="n" s="0">
-        <v/>
+        <v>143.600000</v>
       </c>
       <c r="N26" t="n" s="0">
-        <v/>
+        <v>7.980000</v>
       </c>
       <c r="O26" t="n" s="0">
         <v/>
       </c>
-      <c r="P26" t="n" s="0">
-        <v/>
+      <c r="P26" t="s" s="0">
+        <v>78</v>
       </c>
       <c r="Q26" t="n" s="0">
-        <v/>
+        <v>4.160000</v>
       </c>
       <c r="R26" t="n" s="0">
-        <v/>
+        <v>72.120000</v>
       </c>
       <c r="S26" t="n" s="0">
-        <v/>
+        <v>19.880000</v>
       </c>
       <c r="T26" t="n" s="0">
-        <v/>
+        <v>8.930000</v>
       </c>
       <c r="U26" t="n" s="0">
-        <v/>
+        <v>18.510000</v>
       </c>
       <c r="V26" t="n" s="0">
-        <v/>
+        <v>4.510000</v>
       </c>
       <c r="W26" t="n" s="0">
-        <v/>
+        <v>13.440000</v>
       </c>
       <c r="X26" t="n" s="0">
-        <v/>
+        <v>38.400000</v>
       </c>
       <c r="Y26" t="n" s="0">
-        <v/>
+        <v>73.950000</v>
       </c>
       <c r="Z26" t="n" s="0">
-        <v/>
+        <v>0.700000</v>
       </c>
       <c r="AA26" t="n" s="0">
-        <v/>
+        <v>0.070000</v>
       </c>
       <c r="AB26" t="n" s="0">
-        <v/>
+        <v>143.600000</v>
       </c>
       <c r="AC26" t="n" s="0">
-        <v/>
+        <v>7.980000</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n" s="0">
-        <v/>
+      <c r="A27" t="s" s="0">
+        <v>79</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v/>
+        <v>5.100000</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v/>
+        <v>69.710000</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v/>
+        <v>22.520000</v>
       </c>
       <c r="E27" t="n" s="0">
-        <v/>
+        <v>9.520000</v>
       </c>
       <c r="F27" t="n" s="0">
-        <v/>
+        <v>17.900000</v>
       </c>
       <c r="G27" t="n" s="0">
-        <v/>
+        <v>5.570000</v>
       </c>
       <c r="H27" t="n" s="0">
-        <v/>
+        <v>15.100000</v>
       </c>
       <c r="I27" t="n" s="0">
-        <v/>
+        <v>40.430000</v>
       </c>
       <c r="J27" t="n" s="0">
-        <v/>
+        <v>84.120000</v>
       </c>
       <c r="K27" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="L27" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="M27" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="N27" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="O27" t="n" s="0">
         <v/>
       </c>
-      <c r="P27" t="n" s="0">
-        <v/>
+      <c r="P27" t="s" s="0">
+        <v>80</v>
       </c>
       <c r="Q27" t="n" s="0">
-        <v/>
+        <v>5.240000</v>
       </c>
       <c r="R27" t="n" s="0">
-        <v/>
+        <v>69.520000</v>
       </c>
       <c r="S27" t="n" s="0">
-        <v/>
+        <v>22.950000</v>
       </c>
       <c r="T27" t="n" s="0">
-        <v/>
+        <v>9.670000</v>
       </c>
       <c r="U27" t="n" s="0">
-        <v/>
+        <v>18.430000</v>
       </c>
       <c r="V27" t="n" s="0">
-        <v/>
+        <v>5.570000</v>
       </c>
       <c r="W27" t="n" s="0">
-        <v/>
+        <v>15.240000</v>
       </c>
       <c r="X27" t="n" s="0">
-        <v/>
+        <v>41.380000</v>
       </c>
       <c r="Y27" t="n" s="0">
-        <v/>
+        <v>85.370000</v>
       </c>
       <c r="Z27" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="AA27" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="AB27" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="AC27" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n" s="0">
-        <v/>
+      <c r="A28" t="s" s="0">
+        <v>81</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v/>
+        <v>7.670000</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v/>
+        <v>65.830000</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v/>
+        <v>22.500000</v>
       </c>
       <c r="E28" t="n" s="0">
-        <v/>
+        <v>7.000000</v>
       </c>
       <c r="F28" t="n" s="0">
-        <v/>
+        <v>21.670000</v>
       </c>
       <c r="G28" t="n" s="0">
-        <v/>
+        <v>6.670000</v>
       </c>
       <c r="H28" t="n" s="0">
-        <v/>
+        <v>13.670000</v>
       </c>
       <c r="I28" t="n" s="0">
-        <v/>
+        <v>44.170000</v>
       </c>
       <c r="J28" t="n" s="0">
-        <v/>
+        <v>74.520000</v>
       </c>
       <c r="K28" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="L28" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="M28" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="N28" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="O28" t="n" s="0">
         <v/>
       </c>
-      <c r="P28" t="n" s="0">
-        <v/>
+      <c r="P28" t="s" s="0">
+        <v>82</v>
       </c>
       <c r="Q28" t="n" s="0">
-        <v/>
+        <v>7.330000</v>
       </c>
       <c r="R28" t="n" s="0">
-        <v/>
+        <v>66.330000</v>
       </c>
       <c r="S28" t="n" s="0">
-        <v/>
+        <v>22.000000</v>
       </c>
       <c r="T28" t="n" s="0">
-        <v/>
+        <v>7.000000</v>
       </c>
       <c r="U28" t="n" s="0">
-        <v/>
+        <v>20.500000</v>
       </c>
       <c r="V28" t="n" s="0">
-        <v/>
+        <v>6.170000</v>
       </c>
       <c r="W28" t="n" s="0">
-        <v/>
+        <v>13.170000</v>
       </c>
       <c r="X28" t="n" s="0">
-        <v/>
+        <v>42.500000</v>
       </c>
       <c r="Y28" t="n" s="0">
-        <v/>
+        <v>71.230000</v>
       </c>
       <c r="Z28" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="AA28" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="AB28" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="AC28" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n" s="0">
-        <v/>
+      <c r="A29" t="s" s="0">
+        <v>83</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v/>
+        <v>4.330000</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v/>
+        <v>77.330000</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v/>
+        <v>15.470000</v>
       </c>
       <c r="E29" t="n" s="0">
-        <v/>
+        <v>6.330000</v>
       </c>
       <c r="F29" t="n" s="0">
-        <v/>
+        <v>15.530000</v>
       </c>
       <c r="G29" t="n" s="0">
-        <v/>
+        <v>4.270000</v>
       </c>
       <c r="H29" t="n" s="0">
-        <v/>
+        <v>10.600000</v>
       </c>
       <c r="I29" t="n" s="0">
-        <v/>
+        <v>31.000000</v>
       </c>
       <c r="J29" t="n" s="0">
-        <v/>
+        <v>54.270000</v>
       </c>
       <c r="K29" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="L29" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="M29" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="N29" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="O29" t="n" s="0">
         <v/>
       </c>
-      <c r="P29" t="n" s="0">
-        <v/>
+      <c r="P29" t="s" s="0">
+        <v>84</v>
       </c>
       <c r="Q29" t="n" s="0">
-        <v/>
+        <v>4.270000</v>
       </c>
       <c r="R29" t="n" s="0">
-        <v/>
+        <v>77.400000</v>
       </c>
       <c r="S29" t="n" s="0">
-        <v/>
+        <v>15.330000</v>
       </c>
       <c r="T29" t="n" s="0">
-        <v/>
+        <v>6.330000</v>
       </c>
       <c r="U29" t="n" s="0">
-        <v/>
+        <v>15.400000</v>
       </c>
       <c r="V29" t="n" s="0">
-        <v/>
+        <v>4.270000</v>
       </c>
       <c r="W29" t="n" s="0">
-        <v/>
+        <v>10.600000</v>
       </c>
       <c r="X29" t="n" s="0">
-        <v/>
+        <v>30.730000</v>
       </c>
       <c r="Y29" t="n" s="0">
-        <v/>
+        <v>54.110000</v>
       </c>
       <c r="Z29" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="AA29" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="AB29" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="AC29" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n" s="0">
-        <v/>
+      <c r="A30" t="s" s="0">
+        <v>85</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v/>
+        <v>9.600000</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v/>
+        <v>67.710000</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v/>
+        <v>34.380000</v>
       </c>
       <c r="E30" t="n" s="0">
-        <v/>
+        <v>12.520000</v>
       </c>
       <c r="F30" t="n" s="0">
-        <v/>
+        <v>31.640000</v>
       </c>
       <c r="G30" t="n" s="0">
-        <v/>
+        <v>5.400000</v>
       </c>
       <c r="H30" t="n" s="0">
-        <v/>
+        <v>17.930000</v>
       </c>
       <c r="I30" t="n" s="0">
-        <v/>
+        <v>66.020000</v>
       </c>
       <c r="J30" t="n" s="0">
-        <v/>
+        <v>111.880000</v>
       </c>
       <c r="K30" t="n" s="0">
-        <v/>
+        <v>0.690000</v>
       </c>
       <c r="L30" t="n" s="0">
-        <v/>
+        <v>0.013000</v>
       </c>
       <c r="M30" t="n" s="0">
-        <v/>
+        <v>647.940000</v>
       </c>
       <c r="N30" t="n" s="0">
-        <v/>
+        <v>36.000000</v>
       </c>
       <c r="O30" t="n" s="0">
         <v/>
       </c>
-      <c r="P30" t="n" s="0">
-        <v/>
+      <c r="P30" t="s" s="0">
+        <v>86</v>
       </c>
       <c r="Q30" t="n" s="0">
-        <v/>
+        <v>9.600000</v>
       </c>
       <c r="R30" t="n" s="0">
-        <v/>
+        <v>67.710000</v>
       </c>
       <c r="S30" t="n" s="0">
-        <v/>
+        <v>34.310000</v>
       </c>
       <c r="T30" t="n" s="0">
-        <v/>
+        <v>12.550000</v>
       </c>
       <c r="U30" t="n" s="0">
-        <v/>
+        <v>31.570000</v>
       </c>
       <c r="V30" t="n" s="0">
-        <v/>
+        <v>5.380000</v>
       </c>
       <c r="W30" t="n" s="0">
-        <v/>
+        <v>17.930000</v>
       </c>
       <c r="X30" t="n" s="0">
-        <v/>
+        <v>65.880000</v>
       </c>
       <c r="Y30" t="n" s="0">
-        <v/>
+        <v>111.810000</v>
       </c>
       <c r="Z30" t="n" s="0">
-        <v/>
+        <v>0.690000</v>
       </c>
       <c r="AA30" t="n" s="0">
-        <v/>
+        <v>0.013000</v>
       </c>
       <c r="AB30" t="n" s="0">
-        <v/>
+        <v>647.940000</v>
       </c>
       <c r="AC30" t="n" s="0">
-        <v/>
+        <v>36.000000</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n" s="0">
-        <v/>
+      <c r="A31" t="s" s="0">
+        <v>87</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v/>
+        <v>3.110000</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v/>
+        <v>77.560000</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v/>
+        <v>12.110000</v>
       </c>
       <c r="E31" t="n" s="0">
-        <v/>
+        <v>5.560000</v>
       </c>
       <c r="F31" t="n" s="0">
-        <v/>
+        <v>10.440000</v>
       </c>
       <c r="G31" t="n" s="0">
-        <v/>
+        <v>3.000000</v>
       </c>
       <c r="H31" t="n" s="0">
-        <v/>
+        <v>8.560000</v>
       </c>
       <c r="I31" t="n" s="0">
-        <v/>
+        <v>22.560000</v>
       </c>
       <c r="J31" t="n" s="0">
-        <v/>
+        <v>40.270000</v>
       </c>
       <c r="K31" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="L31" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="M31" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="N31" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="O31" t="n" s="0">
         <v/>
       </c>
-      <c r="P31" t="n" s="0">
-        <v/>
+      <c r="P31" t="s" s="0">
+        <v>88</v>
       </c>
       <c r="Q31" t="n" s="0">
-        <v/>
+        <v>4.330000</v>
       </c>
       <c r="R31" t="n" s="0">
-        <v/>
+        <v>76.780000</v>
       </c>
       <c r="S31" t="n" s="0">
-        <v/>
+        <v>13.670000</v>
       </c>
       <c r="T31" t="n" s="0">
-        <v/>
+        <v>5.890000</v>
       </c>
       <c r="U31" t="n" s="0">
-        <v/>
+        <v>14.330000</v>
       </c>
       <c r="V31" t="n" s="0">
-        <v/>
+        <v>3.110000</v>
       </c>
       <c r="W31" t="n" s="0">
-        <v/>
+        <v>9.000000</v>
       </c>
       <c r="X31" t="n" s="0">
-        <v/>
+        <v>28.000000</v>
       </c>
       <c r="Y31" t="n" s="0">
-        <v/>
+        <v>45.180000</v>
       </c>
       <c r="Z31" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="AA31" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="AB31" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="AC31" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n" s="0">
-        <v/>
+      <c r="A32" t="s" s="0">
+        <v>89</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v/>
+        <v>3.110000</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v/>
+        <v>77.560000</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v/>
+        <v>12.110000</v>
       </c>
       <c r="E32" t="n" s="0">
-        <v/>
+        <v>5.560000</v>
       </c>
       <c r="F32" t="n" s="0">
-        <v/>
+        <v>10.440000</v>
       </c>
       <c r="G32" t="n" s="0">
-        <v/>
+        <v>3.000000</v>
       </c>
       <c r="H32" t="n" s="0">
-        <v/>
+        <v>8.560000</v>
       </c>
       <c r="I32" t="n" s="0">
-        <v/>
+        <v>22.560000</v>
       </c>
       <c r="J32" t="n" s="0">
-        <v/>
+        <v>40.270000</v>
       </c>
       <c r="K32" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="L32" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="M32" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="N32" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="O32" t="n" s="0">
         <v/>
       </c>
-      <c r="P32" t="n" s="0">
-        <v/>
+      <c r="P32" t="s" s="0">
+        <v>90</v>
       </c>
       <c r="Q32" t="n" s="0">
-        <v/>
+        <v>5.000000</v>
       </c>
       <c r="R32" t="n" s="0">
-        <v/>
+        <v>76.560000</v>
       </c>
       <c r="S32" t="n" s="0">
-        <v/>
+        <v>14.670000</v>
       </c>
       <c r="T32" t="n" s="0">
-        <v/>
+        <v>6.220000</v>
       </c>
       <c r="U32" t="n" s="0">
-        <v/>
+        <v>16.890000</v>
       </c>
       <c r="V32" t="n" s="0">
-        <v/>
+        <v>3.110000</v>
       </c>
       <c r="W32" t="n" s="0">
-        <v/>
+        <v>9.330000</v>
       </c>
       <c r="X32" t="n" s="0">
-        <v/>
+        <v>31.560000</v>
       </c>
       <c r="Y32" t="n" s="0">
-        <v/>
+        <v>48.590000</v>
       </c>
       <c r="Z32" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="AA32" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="AB32" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="AC32" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n" s="0">
-        <v/>
+      <c r="A33" t="s" s="0">
+        <v>91</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v/>
+        <v>4.380000</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v/>
+        <v>78.060000</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v/>
+        <v>15.190000</v>
       </c>
       <c r="E33" t="n" s="0">
-        <v/>
+        <v>6.190000</v>
       </c>
       <c r="F33" t="n" s="0">
-        <v/>
+        <v>16.120000</v>
       </c>
       <c r="G33" t="n" s="0">
-        <v/>
+        <v>4.120000</v>
       </c>
       <c r="H33" t="n" s="0">
-        <v/>
+        <v>10.310000</v>
       </c>
       <c r="I33" t="n" s="0">
-        <v/>
+        <v>31.310000</v>
       </c>
       <c r="J33" t="n" s="0">
-        <v/>
+        <v>53.560000</v>
       </c>
       <c r="K33" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="L33" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="M33" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="N33" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="O33" t="n" s="0">
         <v/>
       </c>
-      <c r="P33" t="n" s="0">
-        <v/>
+      <c r="P33" t="s" s="0">
+        <v>92</v>
       </c>
       <c r="Q33" t="n" s="0">
-        <v/>
+        <v>4.190000</v>
       </c>
       <c r="R33" t="n" s="0">
-        <v/>
+        <v>78.620000</v>
       </c>
       <c r="S33" t="n" s="0">
-        <v/>
+        <v>14.690000</v>
       </c>
       <c r="T33" t="n" s="0">
-        <v/>
+        <v>6.060000</v>
       </c>
       <c r="U33" t="n" s="0">
-        <v/>
+        <v>15.440000</v>
       </c>
       <c r="V33" t="n" s="0">
-        <v/>
+        <v>4.120000</v>
       </c>
       <c r="W33" t="n" s="0">
-        <v/>
+        <v>10.190000</v>
       </c>
       <c r="X33" t="n" s="0">
-        <v/>
+        <v>30.120000</v>
       </c>
       <c r="Y33" t="n" s="0">
-        <v/>
+        <v>52.360000</v>
       </c>
       <c r="Z33" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="AA33" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="AB33" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="AC33" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n" s="0">
-        <v/>
+      <c r="A34" t="s" s="0">
+        <v>93</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v/>
+        <v>2.660000</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v/>
+        <v>82.900000</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v/>
+        <v>7.020000</v>
       </c>
       <c r="E34" t="n" s="0">
-        <v/>
+        <v>4.000000</v>
       </c>
       <c r="F34" t="n" s="0">
-        <v/>
+        <v>6.800000</v>
       </c>
       <c r="G34" t="n" s="0">
-        <v/>
+        <v>2.900000</v>
       </c>
       <c r="H34" t="n" s="0">
-        <v/>
+        <v>6.900000</v>
       </c>
       <c r="I34" t="n" s="0">
-        <v/>
+        <v>13.830000</v>
       </c>
       <c r="J34" t="n" s="0">
-        <v/>
+        <v>28.120000</v>
       </c>
       <c r="K34" t="n" s="0">
-        <v/>
+        <v>0.560000</v>
       </c>
       <c r="L34" t="n" s="0">
-        <v/>
+        <v>0.120000</v>
       </c>
       <c r="M34" t="n" s="0">
-        <v/>
+        <v>6.300000</v>
       </c>
       <c r="N34" t="n" s="0">
-        <v/>
+        <v>0.350000</v>
       </c>
       <c r="O34" t="n" s="0">
         <v/>
       </c>
-      <c r="P34" t="n" s="0">
-        <v/>
+      <c r="P34" t="s" s="0">
+        <v>94</v>
       </c>
       <c r="Q34" t="n" s="0">
-        <v/>
+        <v>2.630000</v>
       </c>
       <c r="R34" t="n" s="0">
-        <v/>
+        <v>82.950000</v>
       </c>
       <c r="S34" t="n" s="0">
-        <v/>
+        <v>7.020000</v>
       </c>
       <c r="T34" t="n" s="0">
-        <v/>
+        <v>4.020000</v>
       </c>
       <c r="U34" t="n" s="0">
-        <v/>
+        <v>6.710000</v>
       </c>
       <c r="V34" t="n" s="0">
-        <v/>
+        <v>2.900000</v>
       </c>
       <c r="W34" t="n" s="0">
-        <v/>
+        <v>6.930000</v>
       </c>
       <c r="X34" t="n" s="0">
-        <v/>
+        <v>13.730000</v>
       </c>
       <c r="Y34" t="n" s="0">
-        <v/>
+        <v>28.180000</v>
       </c>
       <c r="Z34" t="n" s="0">
-        <v/>
+        <v>0.560000</v>
       </c>
       <c r="AA34" t="n" s="0">
-        <v/>
+        <v>0.120000</v>
       </c>
       <c r="AB34" t="n" s="0">
-        <v/>
+        <v>6.300000</v>
       </c>
       <c r="AC34" t="n" s="0">
-        <v/>
+        <v>0.350000</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n" s="0">
-        <v/>
+      <c r="A35" t="s" s="0">
+        <v>95</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v/>
+        <v>1.850000</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v/>
+        <v>90.700000</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v/>
+        <v>3.760000</v>
       </c>
       <c r="E35" t="n" s="0">
-        <v/>
+        <v>3.120000</v>
       </c>
       <c r="F35" t="n" s="0">
-        <v/>
+        <v>4.000000</v>
       </c>
       <c r="G35" t="n" s="0">
-        <v/>
+        <v>1.910000</v>
       </c>
       <c r="H35" t="n" s="0">
-        <v/>
+        <v>5.030000</v>
       </c>
       <c r="I35" t="n" s="0">
-        <v/>
+        <v>7.760000</v>
       </c>
       <c r="J35" t="n" s="0">
-        <v/>
+        <v>17.510000</v>
       </c>
       <c r="K35" t="n" s="0">
-        <v/>
+        <v>0.940000</v>
       </c>
       <c r="L35" t="n" s="0">
-        <v/>
+        <v>0.092000</v>
       </c>
       <c r="M35" t="n" s="0">
-        <v/>
+        <v>17.550000</v>
       </c>
       <c r="N35" t="n" s="0">
-        <v/>
+        <v>0.980000</v>
       </c>
       <c r="O35" t="n" s="0">
         <v/>
       </c>
-      <c r="P35" t="n" s="0">
-        <v/>
+      <c r="P35" t="s" s="0">
+        <v>96</v>
       </c>
       <c r="Q35" t="n" s="0">
-        <v/>
+        <v>1.790000</v>
       </c>
       <c r="R35" t="n" s="0">
-        <v/>
+        <v>90.700000</v>
       </c>
       <c r="S35" t="n" s="0">
-        <v/>
+        <v>3.640000</v>
       </c>
       <c r="T35" t="n" s="0">
-        <v/>
+        <v>3.120000</v>
       </c>
       <c r="U35" t="n" s="0">
-        <v/>
+        <v>3.820000</v>
       </c>
       <c r="V35" t="n" s="0">
-        <v/>
+        <v>1.820000</v>
       </c>
       <c r="W35" t="n" s="0">
-        <v/>
+        <v>4.940000</v>
       </c>
       <c r="X35" t="n" s="0">
-        <v/>
+        <v>7.450000</v>
       </c>
       <c r="Y35" t="n" s="0">
-        <v/>
+        <v>16.750000</v>
       </c>
       <c r="Z35" t="n" s="0">
-        <v/>
+        <v>0.940000</v>
       </c>
       <c r="AA35" t="n" s="0">
-        <v/>
+        <v>0.092000</v>
       </c>
       <c r="AB35" t="n" s="0">
-        <v/>
+        <v>17.550000</v>
       </c>
       <c r="AC35" t="n" s="0">
-        <v/>
+        <v>0.980000</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n" s="0">
-        <v/>
+      <c r="A36" t="s" s="0">
+        <v>97</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v/>
+        <v>2.860000</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v/>
+        <v>81.180000</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v/>
+        <v>10.000000</v>
       </c>
       <c r="E36" t="n" s="0">
-        <v/>
+        <v>4.360000</v>
       </c>
       <c r="F36" t="n" s="0">
-        <v/>
+        <v>7.590000</v>
       </c>
       <c r="G36" t="n" s="0">
-        <v/>
+        <v>2.950000</v>
       </c>
       <c r="H36" t="n" s="0">
-        <v/>
+        <v>7.320000</v>
       </c>
       <c r="I36" t="n" s="0">
-        <v/>
+        <v>17.590000</v>
       </c>
       <c r="J36" t="n" s="0">
-        <v/>
+        <v>31.690000</v>
       </c>
       <c r="K36" t="n" s="0">
-        <v/>
+        <v>0.140000</v>
       </c>
       <c r="L36" t="n" s="0">
-        <v/>
+        <v>0.015000</v>
       </c>
       <c r="M36" t="n" s="0">
-        <v/>
+        <v>2.160000</v>
       </c>
       <c r="N36" t="n" s="0">
-        <v/>
+        <v>0.120000</v>
       </c>
       <c r="O36" t="n" s="0">
         <v/>
       </c>
-      <c r="P36" t="n" s="0">
-        <v/>
+      <c r="P36" t="s" s="0">
+        <v>98</v>
       </c>
       <c r="Q36" t="n" s="0">
-        <v/>
+        <v>2.860000</v>
       </c>
       <c r="R36" t="n" s="0">
-        <v/>
+        <v>81.140000</v>
       </c>
       <c r="S36" t="n" s="0">
-        <v/>
+        <v>10.000000</v>
       </c>
       <c r="T36" t="n" s="0">
-        <v/>
+        <v>4.410000</v>
       </c>
       <c r="U36" t="n" s="0">
-        <v/>
+        <v>7.550000</v>
       </c>
       <c r="V36" t="n" s="0">
-        <v/>
+        <v>2.950000</v>
       </c>
       <c r="W36" t="n" s="0">
-        <v/>
+        <v>7.360000</v>
       </c>
       <c r="X36" t="n" s="0">
-        <v/>
+        <v>17.550000</v>
       </c>
       <c r="Y36" t="n" s="0">
-        <v/>
+        <v>31.910000</v>
       </c>
       <c r="Z36" t="n" s="0">
-        <v/>
+        <v>0.140000</v>
       </c>
       <c r="AA36" t="n" s="0">
-        <v/>
+        <v>0.015000</v>
       </c>
       <c r="AB36" t="n" s="0">
-        <v/>
+        <v>2.160000</v>
       </c>
       <c r="AC36" t="n" s="0">
-        <v/>
+        <v>0.120000</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n" s="0">
-        <v/>
+      <c r="A37" t="s" s="0">
+        <v>99</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v/>
+        <v>5.000000</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v/>
+        <v>73.000000</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v/>
+        <v>14.440000</v>
       </c>
       <c r="E37" t="n" s="0">
-        <v/>
+        <v>5.780000</v>
       </c>
       <c r="F37" t="n" s="0">
-        <v/>
+        <v>14.780000</v>
       </c>
       <c r="G37" t="n" s="0">
-        <v/>
+        <v>4.110000</v>
       </c>
       <c r="H37" t="n" s="0">
-        <v/>
+        <v>9.890000</v>
       </c>
       <c r="I37" t="n" s="0">
-        <v/>
+        <v>29.220000</v>
       </c>
       <c r="J37" t="n" s="0">
-        <v/>
+        <v>49.970000</v>
       </c>
       <c r="K37" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="L37" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="M37" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="N37" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="O37" t="n" s="0">
         <v/>
       </c>
-      <c r="P37" t="n" s="0">
-        <v/>
+      <c r="P37" t="s" s="0">
+        <v>100</v>
       </c>
       <c r="Q37" t="n" s="0">
-        <v/>
+        <v>5.000000</v>
       </c>
       <c r="R37" t="n" s="0">
-        <v/>
+        <v>72.700000</v>
       </c>
       <c r="S37" t="n" s="0">
-        <v/>
+        <v>13.900000</v>
       </c>
       <c r="T37" t="n" s="0">
-        <v/>
+        <v>5.600000</v>
       </c>
       <c r="U37" t="n" s="0">
-        <v/>
+        <v>14.900000</v>
       </c>
       <c r="V37" t="n" s="0">
-        <v/>
+        <v>4.200000</v>
       </c>
       <c r="W37" t="n" s="0">
-        <v/>
+        <v>9.800000</v>
       </c>
       <c r="X37" t="n" s="0">
-        <v/>
+        <v>28.800000</v>
       </c>
       <c r="Y37" t="n" s="0">
-        <v/>
+        <v>49.160000</v>
       </c>
       <c r="Z37" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="AA37" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="AB37" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="AC37" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n" s="0">
-        <v/>
+      <c r="A38" t="s" s="0">
+        <v>101</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v/>
+        <v>1.760000</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v/>
+        <v>90.820000</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v/>
+        <v>3.580000</v>
       </c>
       <c r="E38" t="n" s="0">
-        <v/>
+        <v>3.060000</v>
       </c>
       <c r="F38" t="n" s="0">
-        <v/>
+        <v>3.730000</v>
       </c>
       <c r="G38" t="n" s="0">
-        <v/>
+        <v>1.850000</v>
       </c>
       <c r="H38" t="n" s="0">
-        <v/>
+        <v>4.910000</v>
       </c>
       <c r="I38" t="n" s="0">
-        <v/>
+        <v>7.300000</v>
       </c>
       <c r="J38" t="n" s="0">
-        <v/>
+        <v>16.510000</v>
       </c>
       <c r="K38" t="n" s="0">
-        <v/>
+        <v>0.940000</v>
       </c>
       <c r="L38" t="n" s="0">
-        <v/>
+        <v>0.092000</v>
       </c>
       <c r="M38" t="n" s="0">
-        <v/>
+        <v>17.550000</v>
       </c>
       <c r="N38" t="n" s="0">
-        <v/>
+        <v>0.980000</v>
       </c>
       <c r="O38" t="n" s="0">
         <v/>
       </c>
-      <c r="P38" t="n" s="0">
-        <v/>
+      <c r="P38" t="s" s="0">
+        <v>102</v>
       </c>
       <c r="Q38" t="n" s="0">
-        <v/>
+        <v>1.730000</v>
       </c>
       <c r="R38" t="n" s="0">
-        <v/>
+        <v>90.820000</v>
       </c>
       <c r="S38" t="n" s="0">
-        <v/>
+        <v>3.480000</v>
       </c>
       <c r="T38" t="n" s="0">
-        <v/>
+        <v>3.090000</v>
       </c>
       <c r="U38" t="n" s="0">
-        <v/>
+        <v>3.580000</v>
       </c>
       <c r="V38" t="n" s="0">
-        <v/>
+        <v>1.820000</v>
       </c>
       <c r="W38" t="n" s="0">
-        <v/>
+        <v>4.910000</v>
       </c>
       <c r="X38" t="n" s="0">
-        <v/>
+        <v>7.060000</v>
       </c>
       <c r="Y38" t="n" s="0">
-        <v/>
+        <v>16.330000</v>
       </c>
       <c r="Z38" t="n" s="0">
-        <v/>
+        <v>0.940000</v>
       </c>
       <c r="AA38" t="n" s="0">
-        <v/>
+        <v>0.092000</v>
       </c>
       <c r="AB38" t="n" s="0">
-        <v/>
+        <v>17.550000</v>
       </c>
       <c r="AC38" t="n" s="0">
-        <v/>
+        <v>0.980000</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n" s="0">
-        <v/>
+      <c r="A39" t="s" s="0">
+        <v>103</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v/>
+        <v>2.390000</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v/>
+        <v>81.000000</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v/>
+        <v>9.500000</v>
       </c>
       <c r="E39" t="n" s="0">
-        <v/>
+        <v>5.640000</v>
       </c>
       <c r="F39" t="n" s="0">
-        <v/>
+        <v>6.640000</v>
       </c>
       <c r="G39" t="n" s="0">
-        <v/>
+        <v>2.710000</v>
       </c>
       <c r="H39" t="n" s="0">
-        <v/>
+        <v>8.360000</v>
       </c>
       <c r="I39" t="n" s="0">
-        <v/>
+        <v>16.140000</v>
       </c>
       <c r="J39" t="n" s="0">
-        <v/>
+        <v>33.640000</v>
       </c>
       <c r="K39" t="n" s="0">
-        <v/>
+        <v>0.071000</v>
       </c>
       <c r="L39" t="n" s="0">
-        <v/>
+        <v>0.071000</v>
       </c>
       <c r="M39" t="n" s="0">
-        <v/>
+        <v>0.330000</v>
       </c>
       <c r="N39" t="n" s="0">
-        <v/>
+        <v>0.018000</v>
       </c>
       <c r="O39" t="n" s="0">
         <v/>
       </c>
-      <c r="P39" t="n" s="0">
-        <v/>
+      <c r="P39" t="s" s="0">
+        <v>104</v>
       </c>
       <c r="Q39" t="n" s="0">
-        <v/>
+        <v>2.390000</v>
       </c>
       <c r="R39" t="n" s="0">
-        <v/>
+        <v>81.140000</v>
       </c>
       <c r="S39" t="n" s="0">
-        <v/>
+        <v>9.390000</v>
       </c>
       <c r="T39" t="n" s="0">
-        <v/>
+        <v>5.680000</v>
       </c>
       <c r="U39" t="n" s="0">
-        <v/>
+        <v>6.460000</v>
       </c>
       <c r="V39" t="n" s="0">
-        <v/>
+        <v>2.610000</v>
       </c>
       <c r="W39" t="n" s="0">
-        <v/>
+        <v>8.290000</v>
       </c>
       <c r="X39" t="n" s="0">
-        <v/>
+        <v>15.860000</v>
       </c>
       <c r="Y39" t="n" s="0">
-        <v/>
+        <v>33.220000</v>
       </c>
       <c r="Z39" t="n" s="0">
-        <v/>
+        <v>0.071000</v>
       </c>
       <c r="AA39" t="n" s="0">
-        <v/>
+        <v>0.071000</v>
       </c>
       <c r="AB39" t="n" s="0">
-        <v/>
+        <v>0.330000</v>
       </c>
       <c r="AC39" t="n" s="0">
-        <v/>
+        <v>0.018000</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n" s="0">
-        <v/>
+      <c r="A40" t="s" s="0">
+        <v>105</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v/>
+        <v>9.120000</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v/>
+        <v>67.880000</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v/>
+        <v>33.100000</v>
       </c>
       <c r="E40" t="n" s="0">
-        <v/>
+        <v>11.880000</v>
       </c>
       <c r="F40" t="n" s="0">
-        <v/>
+        <v>30.150000</v>
       </c>
       <c r="G40" t="n" s="0">
-        <v/>
+        <v>5.560000</v>
       </c>
       <c r="H40" t="n" s="0">
-        <v/>
+        <v>17.440000</v>
       </c>
       <c r="I40" t="n" s="0">
-        <v/>
+        <v>63.240000</v>
       </c>
       <c r="J40" t="n" s="0">
-        <v/>
+        <v>107.200000</v>
       </c>
       <c r="K40" t="n" s="0">
-        <v/>
+        <v>0.710000</v>
       </c>
       <c r="L40" t="n" s="0">
-        <v/>
+        <v>0.025000</v>
       </c>
       <c r="M40" t="n" s="0">
-        <v/>
+        <v>577.500000</v>
       </c>
       <c r="N40" t="n" s="0">
-        <v/>
+        <v>32.080000</v>
       </c>
       <c r="O40" t="n" s="0">
         <v/>
       </c>
-      <c r="P40" t="n" s="0">
-        <v/>
+      <c r="P40" t="s" s="0">
+        <v>106</v>
       </c>
       <c r="Q40" t="n" s="0">
-        <v/>
+        <v>9.120000</v>
       </c>
       <c r="R40" t="n" s="0">
-        <v/>
+        <v>67.880000</v>
       </c>
       <c r="S40" t="n" s="0">
-        <v/>
+        <v>33.020000</v>
       </c>
       <c r="T40" t="n" s="0">
-        <v/>
+        <v>11.880000</v>
       </c>
       <c r="U40" t="n" s="0">
-        <v/>
+        <v>30.050000</v>
       </c>
       <c r="V40" t="n" s="0">
-        <v/>
+        <v>5.560000</v>
       </c>
       <c r="W40" t="n" s="0">
-        <v/>
+        <v>17.440000</v>
       </c>
       <c r="X40" t="n" s="0">
-        <v/>
+        <v>63.070000</v>
       </c>
       <c r="Y40" t="n" s="0">
-        <v/>
+        <v>107.180000</v>
       </c>
       <c r="Z40" t="n" s="0">
-        <v/>
+        <v>0.710000</v>
       </c>
       <c r="AA40" t="n" s="0">
-        <v/>
+        <v>0.025000</v>
       </c>
       <c r="AB40" t="n" s="0">
-        <v/>
+        <v>577.500000</v>
       </c>
       <c r="AC40" t="n" s="0">
-        <v/>
+        <v>32.080000</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n" s="0">
-        <v/>
+      <c r="A41" t="s" s="0">
+        <v>107</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v/>
+        <v>1.700000</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v/>
+        <v>91.970000</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v/>
+        <v>4.300000</v>
       </c>
       <c r="E41" t="n" s="0">
-        <v/>
+        <v>2.700000</v>
       </c>
       <c r="F41" t="n" s="0">
-        <v/>
+        <v>2.670000</v>
       </c>
       <c r="G41" t="n" s="0">
-        <v/>
+        <v>1.380000</v>
       </c>
       <c r="H41" t="n" s="0">
-        <v/>
+        <v>4.080000</v>
       </c>
       <c r="I41" t="n" s="0">
-        <v/>
+        <v>6.970000</v>
       </c>
       <c r="J41" t="n" s="0">
-        <v/>
+        <v>11.970000</v>
       </c>
       <c r="K41" t="n" s="0">
-        <v/>
+        <v>0.570000</v>
       </c>
       <c r="L41" t="n" s="0">
-        <v/>
+        <v>0.062000</v>
       </c>
       <c r="M41" t="n" s="0">
-        <v/>
+        <v>10.840000</v>
       </c>
       <c r="N41" t="n" s="0">
-        <v/>
+        <v>0.600000</v>
       </c>
       <c r="O41" t="n" s="0">
         <v/>
       </c>
-      <c r="P41" t="n" s="0">
-        <v/>
+      <c r="P41" t="s" s="0">
+        <v>108</v>
       </c>
       <c r="Q41" t="n" s="0">
-        <v/>
+        <v>1.710000</v>
       </c>
       <c r="R41" t="n" s="0">
-        <v/>
+        <v>91.970000</v>
       </c>
       <c r="S41" t="n" s="0">
-        <v/>
+        <v>4.290000</v>
       </c>
       <c r="T41" t="n" s="0">
-        <v/>
+        <v>2.710000</v>
       </c>
       <c r="U41" t="n" s="0">
-        <v/>
+        <v>2.680000</v>
       </c>
       <c r="V41" t="n" s="0">
-        <v/>
+        <v>1.410000</v>
       </c>
       <c r="W41" t="n" s="0">
-        <v/>
+        <v>4.130000</v>
       </c>
       <c r="X41" t="n" s="0">
-        <v/>
+        <v>6.970000</v>
       </c>
       <c r="Y41" t="n" s="0">
-        <v/>
+        <v>12.170000</v>
       </c>
       <c r="Z41" t="n" s="0">
-        <v/>
+        <v>0.570000</v>
       </c>
       <c r="AA41" t="n" s="0">
-        <v/>
+        <v>0.062000</v>
       </c>
       <c r="AB41" t="n" s="0">
-        <v/>
+        <v>10.840000</v>
       </c>
       <c r="AC41" t="n" s="0">
-        <v/>
+        <v>0.600000</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n" s="0">
-        <v/>
+      <c r="A42" t="s" s="0">
+        <v>109</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v/>
+        <v>4.770000</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v/>
+        <v>80.480000</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v/>
+        <v>9.570000</v>
       </c>
       <c r="E42" t="n" s="0">
-        <v/>
+        <v>4.790000</v>
       </c>
       <c r="F42" t="n" s="0">
-        <v/>
+        <v>10.430000</v>
       </c>
       <c r="G42" t="n" s="0">
-        <v/>
+        <v>3.260000</v>
       </c>
       <c r="H42" t="n" s="0">
-        <v/>
+        <v>8.040000</v>
       </c>
       <c r="I42" t="n" s="0">
-        <v/>
+        <v>20.000000</v>
       </c>
       <c r="J42" t="n" s="0">
-        <v/>
+        <v>35.300000</v>
       </c>
       <c r="K42" t="n" s="0">
-        <v/>
+        <v>2.390000</v>
       </c>
       <c r="L42" t="n" s="0">
-        <v/>
+        <v>0.034000</v>
       </c>
       <c r="M42" t="n" s="0">
-        <v/>
+        <v>393.870000</v>
       </c>
       <c r="N42" t="n" s="0">
-        <v/>
+        <v>21.880000</v>
       </c>
       <c r="O42" t="n" s="0">
         <v/>
       </c>
-      <c r="P42" t="n" s="0">
-        <v/>
+      <c r="P42" t="s" s="0">
+        <v>110</v>
       </c>
       <c r="Q42" t="n" s="0">
-        <v/>
+        <v>4.740000</v>
       </c>
       <c r="R42" t="n" s="0">
-        <v/>
+        <v>80.490000</v>
       </c>
       <c r="S42" t="n" s="0">
-        <v/>
+        <v>9.480000</v>
       </c>
       <c r="T42" t="n" s="0">
-        <v/>
+        <v>4.770000</v>
       </c>
       <c r="U42" t="n" s="0">
-        <v/>
+        <v>10.280000</v>
       </c>
       <c r="V42" t="n" s="0">
-        <v/>
+        <v>3.260000</v>
       </c>
       <c r="W42" t="n" s="0">
-        <v/>
+        <v>8.020000</v>
       </c>
       <c r="X42" t="n" s="0">
-        <v/>
+        <v>19.760000</v>
       </c>
       <c r="Y42" t="n" s="0">
-        <v/>
+        <v>35.060000</v>
       </c>
       <c r="Z42" t="n" s="0">
-        <v/>
+        <v>2.390000</v>
       </c>
       <c r="AA42" t="n" s="0">
-        <v/>
+        <v>0.034000</v>
       </c>
       <c r="AB42" t="n" s="0">
-        <v/>
+        <v>393.870000</v>
       </c>
       <c r="AC42" t="n" s="0">
-        <v/>
+        <v>21.880000</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n" s="0">
-        <v/>
+      <c r="A43" t="s" s="0">
+        <v>111</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v/>
+        <v>4.600000</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v/>
+        <v>80.410000</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v/>
+        <v>9.330000</v>
       </c>
       <c r="E43" t="n" s="0">
-        <v/>
+        <v>4.810000</v>
       </c>
       <c r="F43" t="n" s="0">
-        <v/>
+        <v>9.920000</v>
       </c>
       <c r="G43" t="n" s="0">
-        <v/>
+        <v>3.220000</v>
       </c>
       <c r="H43" t="n" s="0">
-        <v/>
+        <v>8.030000</v>
       </c>
       <c r="I43" t="n" s="0">
-        <v/>
+        <v>19.250000</v>
       </c>
       <c r="J43" t="n" s="0">
-        <v/>
+        <v>34.720000</v>
       </c>
       <c r="K43" t="n" s="0">
-        <v/>
+        <v>2.640000</v>
       </c>
       <c r="L43" t="n" s="0">
-        <v/>
+        <v>0.034000</v>
       </c>
       <c r="M43" t="n" s="0">
-        <v/>
+        <v>458.350000</v>
       </c>
       <c r="N43" t="n" s="0">
-        <v/>
+        <v>25.460000</v>
       </c>
       <c r="O43" t="n" s="0">
         <v/>
       </c>
-      <c r="P43" t="n" s="0">
-        <v/>
+      <c r="P43" t="s" s="0">
+        <v>112</v>
       </c>
       <c r="Q43" t="n" s="0">
-        <v/>
+        <v>4.600000</v>
       </c>
       <c r="R43" t="n" s="0">
-        <v/>
+        <v>80.410000</v>
       </c>
       <c r="S43" t="n" s="0">
-        <v/>
+        <v>9.330000</v>
       </c>
       <c r="T43" t="n" s="0">
-        <v/>
+        <v>4.810000</v>
       </c>
       <c r="U43" t="n" s="0">
-        <v/>
+        <v>9.920000</v>
       </c>
       <c r="V43" t="n" s="0">
-        <v/>
+        <v>3.220000</v>
       </c>
       <c r="W43" t="n" s="0">
-        <v/>
+        <v>8.030000</v>
       </c>
       <c r="X43" t="n" s="0">
-        <v/>
+        <v>19.250000</v>
       </c>
       <c r="Y43" t="n" s="0">
-        <v/>
+        <v>34.720000</v>
       </c>
       <c r="Z43" t="n" s="0">
-        <v/>
+        <v>2.640000</v>
       </c>
       <c r="AA43" t="n" s="0">
-        <v/>
+        <v>0.034000</v>
       </c>
       <c r="AB43" t="n" s="0">
-        <v/>
+        <v>458.350000</v>
       </c>
       <c r="AC43" t="n" s="0">
-        <v/>
+        <v>25.460000</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n" s="0">
-        <v/>
+      <c r="A44" t="s" s="0">
+        <v>113</v>
       </c>
       <c r="B44" t="n" s="0">
-        <v/>
+        <v>5.130000</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v/>
+        <v>73.420000</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v/>
+        <v>17.920000</v>
       </c>
       <c r="E44" t="n" s="0">
-        <v/>
+        <v>6.770000</v>
       </c>
       <c r="F44" t="n" s="0">
-        <v/>
+        <v>11.960000</v>
       </c>
       <c r="G44" t="n" s="0">
-        <v/>
+        <v>4.790000</v>
       </c>
       <c r="H44" t="n" s="0">
-        <v/>
+        <v>11.570000</v>
       </c>
       <c r="I44" t="n" s="0">
-        <v/>
+        <v>29.890000</v>
       </c>
       <c r="J44" t="n" s="0">
-        <v/>
+        <v>58.170000</v>
       </c>
       <c r="K44" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="L44" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="M44" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="N44" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="O44" t="n" s="0">
         <v/>
       </c>
-      <c r="P44" t="n" s="0">
-        <v/>
+      <c r="P44" t="s" s="0">
+        <v>114</v>
       </c>
       <c r="Q44" t="n" s="0">
-        <v/>
+        <v>5.060000</v>
       </c>
       <c r="R44" t="n" s="0">
-        <v/>
+        <v>73.430000</v>
       </c>
       <c r="S44" t="n" s="0">
-        <v/>
+        <v>17.750000</v>
       </c>
       <c r="T44" t="n" s="0">
-        <v/>
+        <v>6.770000</v>
       </c>
       <c r="U44" t="n" s="0">
-        <v/>
+        <v>11.680000</v>
       </c>
       <c r="V44" t="n" s="0">
-        <v/>
+        <v>4.790000</v>
       </c>
       <c r="W44" t="n" s="0">
-        <v/>
+        <v>11.570000</v>
       </c>
       <c r="X44" t="n" s="0">
-        <v/>
+        <v>29.430000</v>
       </c>
       <c r="Y44" t="n" s="0">
-        <v/>
+        <v>58.070000</v>
       </c>
       <c r="Z44" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="AA44" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="AB44" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="AC44" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n" s="0">
-        <v/>
+      <c r="A45" t="s" s="0">
+        <v>115</v>
       </c>
       <c r="B45" t="n" s="0">
-        <v/>
+        <v>4.450000</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v/>
+        <v>80.000000</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v/>
+        <v>26.350000</v>
       </c>
       <c r="E45" t="n" s="0">
-        <v/>
+        <v>7.600000</v>
       </c>
       <c r="F45" t="n" s="0">
-        <v/>
+        <v>17.450000</v>
       </c>
       <c r="G45" t="n" s="0">
-        <v/>
+        <v>3.050000</v>
       </c>
       <c r="H45" t="n" s="0">
-        <v/>
+        <v>10.650000</v>
       </c>
       <c r="I45" t="n" s="0">
-        <v/>
+        <v>43.800000</v>
       </c>
       <c r="J45" t="n" s="0">
-        <v/>
+        <v>63.760000</v>
       </c>
       <c r="K45" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="L45" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="M45" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="N45" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="O45" t="n" s="0">
         <v/>
       </c>
-      <c r="P45" t="n" s="0">
-        <v/>
+      <c r="P45" t="s" s="0">
+        <v>116</v>
       </c>
       <c r="Q45" t="n" s="0">
-        <v/>
+        <v>4.380000</v>
       </c>
       <c r="R45" t="n" s="0">
-        <v/>
+        <v>79.290000</v>
       </c>
       <c r="S45" t="n" s="0">
-        <v/>
+        <v>27.290000</v>
       </c>
       <c r="T45" t="n" s="0">
-        <v/>
+        <v>7.810000</v>
       </c>
       <c r="U45" t="n" s="0">
-        <v/>
+        <v>17.570000</v>
       </c>
       <c r="V45" t="n" s="0">
-        <v/>
+        <v>3.140000</v>
       </c>
       <c r="W45" t="n" s="0">
-        <v/>
+        <v>10.950000</v>
       </c>
       <c r="X45" t="n" s="0">
-        <v/>
+        <v>44.860000</v>
       </c>
       <c r="Y45" t="n" s="0">
-        <v/>
+        <v>65.400000</v>
       </c>
       <c r="Z45" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="AA45" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="AB45" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="AC45" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n" s="0">
-        <v/>
+      <c r="A46" t="s" s="0">
+        <v>117</v>
       </c>
       <c r="B46" t="n" s="0">
-        <v/>
+        <v>4.710000</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v/>
+        <v>73.000000</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v/>
+        <v>20.000000</v>
       </c>
       <c r="E46" t="n" s="0">
-        <v/>
+        <v>7.570000</v>
       </c>
       <c r="F46" t="n" s="0">
-        <v/>
+        <v>17.140000</v>
       </c>
       <c r="G46" t="n" s="0">
-        <v/>
+        <v>5.430000</v>
       </c>
       <c r="H46" t="n" s="0">
-        <v/>
+        <v>13.000000</v>
       </c>
       <c r="I46" t="n" s="0">
-        <v/>
+        <v>37.140000</v>
       </c>
       <c r="J46" t="n" s="0">
-        <v/>
+        <v>70.010000</v>
       </c>
       <c r="K46" t="n" s="0">
-        <v/>
+        <v>1.290000</v>
       </c>
       <c r="L46" t="n" s="0">
-        <v/>
+        <v>0.071000</v>
       </c>
       <c r="M46" t="n" s="0">
-        <v/>
+        <v>32.860000</v>
       </c>
       <c r="N46" t="n" s="0">
-        <v/>
+        <v>1.830000</v>
       </c>
       <c r="O46" t="n" s="0">
         <v/>
       </c>
-      <c r="P46" t="n" s="0">
-        <v/>
+      <c r="P46" t="s" s="0">
+        <v>118</v>
       </c>
       <c r="Q46" t="n" s="0">
-        <v/>
+        <v>4.430000</v>
       </c>
       <c r="R46" t="n" s="0">
-        <v/>
+        <v>73.140000</v>
       </c>
       <c r="S46" t="n" s="0">
-        <v/>
+        <v>19.430000</v>
       </c>
       <c r="T46" t="n" s="0">
-        <v/>
+        <v>7.570000</v>
       </c>
       <c r="U46" t="n" s="0">
-        <v/>
+        <v>15.710000</v>
       </c>
       <c r="V46" t="n" s="0">
-        <v/>
+        <v>5.430000</v>
       </c>
       <c r="W46" t="n" s="0">
-        <v/>
+        <v>13.000000</v>
       </c>
       <c r="X46" t="n" s="0">
-        <v/>
+        <v>35.140000</v>
       </c>
       <c r="Y46" t="n" s="0">
-        <v/>
+        <v>69.320000</v>
       </c>
       <c r="Z46" t="n" s="0">
-        <v/>
+        <v>1.290000</v>
       </c>
       <c r="AA46" t="n" s="0">
-        <v/>
+        <v>0.071000</v>
       </c>
       <c r="AB46" t="n" s="0">
-        <v/>
+        <v>32.860000</v>
       </c>
       <c r="AC46" t="n" s="0">
-        <v/>
+        <v>1.830000</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n" s="0">
-        <v/>
+      <c r="A47" t="s" s="0">
+        <v>119</v>
       </c>
       <c r="B47" t="n" s="0">
-        <v/>
+        <v>2.140000</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v/>
+        <v>89.860000</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v/>
+        <v>13.570000</v>
       </c>
       <c r="E47" t="n" s="0">
-        <v/>
+        <v>5.290000</v>
       </c>
       <c r="F47" t="n" s="0">
-        <v/>
+        <v>5.710000</v>
       </c>
       <c r="G47" t="n" s="0">
-        <v/>
+        <v>2.000000</v>
       </c>
       <c r="H47" t="n" s="0">
-        <v/>
+        <v>7.290000</v>
       </c>
       <c r="I47" t="n" s="0">
-        <v/>
+        <v>19.290000</v>
       </c>
       <c r="J47" t="n" s="0">
-        <v/>
+        <v>35.910000</v>
       </c>
       <c r="K47" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="L47" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="M47" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="N47" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="O47" t="n" s="0">
         <v/>
       </c>
-      <c r="P47" t="n" s="0">
-        <v/>
+      <c r="P47" t="s" s="0">
+        <v>120</v>
       </c>
       <c r="Q47" t="n" s="0">
-        <v/>
+        <v>3.290000</v>
       </c>
       <c r="R47" t="n" s="0">
-        <v/>
+        <v>88.860000</v>
       </c>
       <c r="S47" t="n" s="0">
-        <v/>
+        <v>21.140000</v>
       </c>
       <c r="T47" t="n" s="0">
-        <v/>
+        <v>6.710000</v>
       </c>
       <c r="U47" t="n" s="0">
-        <v/>
+        <v>12.140000</v>
       </c>
       <c r="V47" t="n" s="0">
-        <v/>
+        <v>3.430000</v>
       </c>
       <c r="W47" t="n" s="0">
-        <v/>
+        <v>10.140000</v>
       </c>
       <c r="X47" t="n" s="0">
-        <v/>
+        <v>33.290000</v>
       </c>
       <c r="Y47" t="n" s="0">
-        <v/>
+        <v>61.990000</v>
       </c>
       <c r="Z47" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="AA47" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="AB47" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
       <c r="AC47" t="n" s="0">
-        <v/>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n" s="0">
-        <v/>
+      <c r="A48" t="s" s="0">
+        <v>121</v>
       </c>
       <c r="B48" t="n" s="0">
-        <v/>
+        <v>2.950000</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v/>
+        <v>85.100000</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v/>
+        <v>13.750000</v>
       </c>
       <c r="E48" t="n" s="0">
-        <v/>
+        <v>5.550000</v>
       </c>
       <c r="F48" t="n" s="0">
-        <v/>
+        <v>12.100000</v>
       </c>
       <c r="G48" t="n" s="0">
-        <v/>
+        <v>3.250000</v>
       </c>
       <c r="H48" t="n" s="0">
-        <v/>
+        <v>8.800000</v>
       </c>
       <c r="I48" t="n" s="0">
-        <v/>
+        <v>25.850000</v>
       </c>
       <c r="J48" t="n" s="0">
-        <v/>
+        <v>46.450000</v>
       </c>
       <c r="K48" t="n" s="0">
-        <v/>
+        <v>0.450000</v>
       </c>
       <c r="L48" t="n" s="0">
-        <v/>
+        <v>0.022000</v>
       </c>
       <c r="M48" t="n" s="0">
-        <v/>
+        <v>14.920000</v>
       </c>
       <c r="N48" t="n" s="0">
-        <v/>
+        <v>0.830000</v>
       </c>
       <c r="O48" t="n" s="0">
         <v/>
       </c>
-      <c r="P48" t="n" s="0">
-        <v/>
+      <c r="P48" t="s" s="0">
+        <v>122</v>
       </c>
       <c r="Q48" t="n" s="0">
-        <v/>
+        <v>2.900000</v>
       </c>
       <c r="R48" t="n" s="0">
-        <v/>
+        <v>85.150000</v>
       </c>
       <c r="S48" t="n" s="0">
-        <v/>
+        <v>13.650000</v>
       </c>
       <c r="T48" t="n" s="0">
-        <v/>
+        <v>5.550000</v>
       </c>
       <c r="U48" t="n" s="0">
-        <v/>
+        <v>11.850000</v>
       </c>
       <c r="V48" t="n" s="0">
-        <v/>
+        <v>3.150000</v>
       </c>
       <c r="W48" t="n" s="0">
-        <v/>
+        <v>8.700000</v>
       </c>
       <c r="X48" t="n" s="0">
-        <v/>
+        <v>25.500000</v>
       </c>
       <c r="Y48" t="n" s="0">
-        <v/>
+        <v>45.640000</v>
       </c>
       <c r="Z48" t="n" s="0">
-        <v/>
+        <v>0.450000</v>
       </c>
       <c r="AA48" t="n" s="0">
-        <v/>
+        <v>0.022000</v>
       </c>
       <c r="AB48" t="n" s="0">
-        <v/>
+        <v>14.920000</v>
       </c>
       <c r="AC48" t="n" s="0">
-        <v/>
+        <v>0.830000</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n" s="0">
-        <v/>
+      <c r="A49" t="s" s="0">
+        <v>123</v>
       </c>
       <c r="B49" t="n" s="0">
-        <v/>
+        <v>2.060000</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v/>
+        <v>80.300000</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v/>
+        <v>10.130000</v>
       </c>
       <c r="E49" t="n" s="0">
-        <v/>
+        <v>3.750000</v>
       </c>
       <c r="F49" t="n" s="0">
-        <v/>
+        <v>7.160000</v>
       </c>
       <c r="G49" t="n" s="0">
-        <v/>
+        <v>3.040000</v>
       </c>
       <c r="H49" t="n" s="0">
-        <v/>
+        <v>6.800000</v>
       </c>
       <c r="I49" t="n" s="0">
-        <v/>
+        <v>17.290000</v>
       </c>
       <c r="J49" t="n" s="0">
-        <v/>
+        <v>29.440000</v>
       </c>
       <c r="K49" t="n" s="0">
-        <v/>
+        <v>0.014000</v>
       </c>
       <c r="L49" t="n" s="0">
-        <v/>
+        <v>0.014000</v>
       </c>
       <c r="M49" t="n" s="0">
-        <v/>
+        <v>0.087000</v>
       </c>
       <c r="N49" t="n" s="0">
-        <v/>
+        <v>0.004800</v>
       </c>
       <c r="O49" t="n" s="0">
         <v/>
       </c>
-      <c r="P49" t="n" s="0">
-        <v/>
+      <c r="P49" t="s" s="0">
+        <v>124</v>
       </c>
       <c r="Q49" t="n" s="0">
-        <v/>
+        <v>2.060000</v>
       </c>
       <c r="R49" t="n" s="0">
-        <v/>
+        <v>80.300000</v>
       </c>
       <c r="S49" t="n" s="0">
-        <v/>
+        <v>10.170000</v>
       </c>
       <c r="T49" t="n" s="0">
-        <v/>
+        <v>3.770000</v>
       </c>
       <c r="U49" t="n" s="0">
-        <v/>
+        <v>7.130000</v>
       </c>
       <c r="V49" t="n" s="0">
-        <v/>
+        <v>3.030000</v>
       </c>
       <c r="W49" t="n" s="0">
-        <v/>
+        <v>6.800000</v>
       </c>
       <c r="X49" t="n" s="0">
-        <v/>
+        <v>17.300000</v>
       </c>
       <c r="Y49" t="n" s="0">
-        <v/>
+        <v>29.440000</v>
       </c>
       <c r="Z49" t="n" s="0">
-        <v/>
+        <v>0.014000</v>
       </c>
       <c r="AA49" t="n" s="0">
-        <v/>
+        <v>0.014000</v>
       </c>
       <c r="AB49" t="n" s="0">
-        <v/>
+        <v>0.087000</v>
       </c>
       <c r="AC49" t="n" s="0">
-        <v/>
+        <v>0.004800</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n" s="0">
-        <v/>
+      <c r="A50" t="s" s="0">
+        <v>125</v>
       </c>
       <c r="B50" t="n" s="0">
-        <v/>
+        <v>5.000000</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v/>
+        <v>78.860000</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v/>
+        <v>16.000000</v>
       </c>
       <c r="E50" t="n" s="0">
-        <v/>
+        <v>6.290000</v>
       </c>
       <c r="F50" t="n" s="0">
-        <v/>
+        <v>11.570000</v>
       </c>
       <c r="G50" t="n" s="0">
-        <v/>
+        <v>3.570000</v>
       </c>
       <c r="H50" t="n" s="0">
-        <v/>
+        <v>9.860000</v>
       </c>
       <c r="I50" t="n" s="0">
-        <v/>
+        <v>27.570000</v>
       </c>
       <c r="J50" t="n" s="0">
-        <v/>
+        <v>48.540000</v>
       </c>
       <c r="K50" t="n" s="0">
-        <v/>
+        <v>0.430000</v>
       </c>
       <c r="L50" t="n" s="0">
-        <v/>
+        <v>0.210000</v>
       </c>
       <c r="M50" t="n" s="0">
-        <v/>
+        <v>10.380000</v>
       </c>
       <c r="N50" t="n" s="0">
-        <v/>
+        <v>0.580000</v>
       </c>
       <c r="O50" t="n" s="0">
         <v/>
       </c>
-      <c r="P50" t="n" s="0">
-        <v/>
+      <c r="P50" t="s" s="0">
+        <v>126</v>
       </c>
       <c r="Q50" t="n" s="0">
-        <v/>
+        <v>5.140000</v>
       </c>
       <c r="R50" t="n" s="0">
-        <v/>
+        <v>78.710000</v>
       </c>
       <c r="S50" t="n" s="0">
-        <v/>
+        <v>17.430000</v>
       </c>
       <c r="T50" t="n" s="0">
-        <v/>
+        <v>6.290000</v>
       </c>
       <c r="U50" t="n" s="0">
-        <v/>
+        <v>13.000000</v>
       </c>
       <c r="V50" t="n" s="0">
-        <v/>
+        <v>3.570000</v>
       </c>
       <c r="W50" t="n" s="0">
-        <v/>
+        <v>9.860000</v>
       </c>
       <c r="X50" t="n" s="0">
-        <v/>
+        <v>30.430000</v>
       </c>
       <c r="Y50" t="n" s="0">
-        <v/>
+        <v>49.370000</v>
       </c>
       <c r="Z50" t="n" s="0">
-        <v/>
+        <v>0.430000</v>
       </c>
       <c r="AA50" t="n" s="0">
-        <v/>
+        <v>0.210000</v>
       </c>
       <c r="AB50" t="n" s="0">
-        <v/>
+        <v>10.380000</v>
       </c>
       <c r="AC50" t="n" s="0">
-        <v/>
+        <v>0.580000</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n" s="0">
-        <v/>
+      <c r="A51" t="s" s="0">
+        <v>127</v>
       </c>
       <c r="B51" t="n" s="0">
-        <v/>
+        <v>6.000000</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v/>
+        <v>65.240000</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v/>
+        <v>51.360000</v>
       </c>
       <c r="E51" t="n" s="0">
-        <v/>
+        <v>11.980000</v>
       </c>
       <c r="F51" t="n" s="0">
-        <v/>
+        <v>44.050000</v>
       </c>
       <c r="G51" t="n" s="0">
-        <v/>
+        <v>8.380000</v>
       </c>
       <c r="H51" t="n" s="0">
-        <v/>
+        <v>20.360000</v>
       </c>
       <c r="I51" t="n" s="0">
-        <v/>
+        <v>95.400000</v>
       </c>
       <c r="J51" t="n" s="0">
-        <v/>
+        <v>133.090000</v>
       </c>
       <c r="K51" t="n" s="0">
-        <v/>
+        <v>0.290000</v>
       </c>
       <c r="L51" t="n" s="0">
-        <v/>
+        <v>0.022000</v>
       </c>
       <c r="M51" t="n" s="0">
-        <v/>
+        <v>3.790000</v>
       </c>
       <c r="N51" t="n" s="0">
-        <v/>
+        <v>0.210000</v>
       </c>
       <c r="O51" t="n" s="0">
         <v/>
       </c>
-      <c r="P51" t="n" s="0">
-        <v/>
+      <c r="P51" t="s" s="0">
+        <v>128</v>
       </c>
       <c r="Q51" t="n" s="0">
-        <v/>
+        <v>6.020000</v>
       </c>
       <c r="R51" t="n" s="0">
-        <v/>
+        <v>65.190000</v>
       </c>
       <c r="S51" t="n" s="0">
-        <v/>
+        <v>51.400000</v>
       </c>
       <c r="T51" t="n" s="0">
-        <v/>
+        <v>11.980000</v>
       </c>
       <c r="U51" t="n" s="0">
-        <v/>
+        <v>44.070000</v>
       </c>
       <c r="V51" t="n" s="0">
-        <v/>
+        <v>8.380000</v>
       </c>
       <c r="W51" t="n" s="0">
-        <v/>
+        <v>20.360000</v>
       </c>
       <c r="X51" t="n" s="0">
-        <v/>
+        <v>95.480000</v>
       </c>
       <c r="Y51" t="n" s="0">
-        <v/>
+        <v>133.130000</v>
       </c>
       <c r="Z51" t="n" s="0">
-        <v/>
+        <v>0.290000</v>
       </c>
       <c r="AA51" t="n" s="0">
-        <v/>
+        <v>0.022000</v>
       </c>
       <c r="AB51" t="n" s="0">
-        <v/>
+        <v>3.790000</v>
       </c>
       <c r="AC51" t="n" s="0">
-        <v/>
+        <v>0.210000</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n" s="0">
-        <v/>
+      <c r="A52" t="s" s="0">
+        <v>129</v>
       </c>
       <c r="B52" t="n" s="0">
-        <v/>
+        <v>6.000000</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v/>
+        <v>65.240000</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v/>
+        <v>51.360000</v>
       </c>
       <c r="E52" t="n" s="0">
-        <v/>
+        <v>11.980000</v>
       </c>
       <c r="F52" t="n" s="0">
-        <v/>
+        <v>44.050000</v>
       </c>
       <c r="G52" t="n" s="0">
-        <v/>
+        <v>8.380000</v>
       </c>
       <c r="H52" t="n" s="0">
-        <v/>
+        <v>20.360000</v>
       </c>
       <c r="I52" t="n" s="0">
-        <v/>
+        <v>95.400000</v>
       </c>
       <c r="J52" t="n" s="0">
-        <v/>
+        <v>133.090000</v>
       </c>
       <c r="K52" t="n" s="0">
-        <v/>
+        <v>0.290000</v>
       </c>
       <c r="L52" t="n" s="0">
-        <v/>
+        <v>0.022000</v>
       </c>
       <c r="M52" t="n" s="0">
-        <v/>
+        <v>3.790000</v>
       </c>
       <c r="N52" t="n" s="0">
-        <v/>
+        <v>0.210000</v>
       </c>
       <c r="O52" t="n" s="0">
         <v/>
       </c>
-      <c r="P52" t="n" s="0">
-        <v/>
+      <c r="P52" t="s" s="0">
+        <v>130</v>
       </c>
       <c r="Q52" t="n" s="0">
-        <v/>
+        <v>5.980000</v>
       </c>
       <c r="R52" t="n" s="0">
-        <v/>
+        <v>65.260000</v>
       </c>
       <c r="S52" t="n" s="0">
-        <v/>
+        <v>51.190000</v>
       </c>
       <c r="T52" t="n" s="0">
-        <v/>
+        <v>12.000000</v>
       </c>
       <c r="U52" t="n" s="0">
-        <v/>
+        <v>43.860000</v>
       </c>
       <c r="V52" t="n" s="0">
-        <v/>
+        <v>8.330000</v>
       </c>
       <c r="W52" t="n" s="0">
-        <v/>
+        <v>20.330000</v>
       </c>
       <c r="X52" t="n" s="0">
-        <v/>
+        <v>95.050000</v>
       </c>
       <c r="Y52" t="n" s="0">
-        <v/>
+        <v>132.860000</v>
       </c>
       <c r="Z52" t="n" s="0">
-        <v/>
+        <v>0.290000</v>
       </c>
       <c r="AA52" t="n" s="0">
-        <v/>
+        <v>0.022000</v>
       </c>
       <c r="AB52" t="n" s="0">
-        <v/>
+        <v>3.790000</v>
       </c>
       <c r="AC52" t="n" s="0">
-        <v/>
+        <v>0.210000</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n" s="0">
-        <v/>
+      <c r="A53" t="s" s="0">
+        <v>131</v>
       </c>
       <c r="B53" t="n" s="0">
-        <v/>
+        <v>3.000000</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v/>
+        <v>72.250000</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v/>
+        <v>19.000000</v>
       </c>
       <c r="E53" t="n" s="0">
-        <v/>
+        <v>8.750000</v>
       </c>
       <c r="F53" t="n" s="0">
-        <v/>
+        <v>11.000000</v>
       </c>
       <c r="G53" t="n" s="0">
-        <v/>
+        <v>5.000000</v>
       </c>
       <c r="H53" t="n" s="0">
-        <v/>
+        <v>13.750000</v>
       </c>
       <c r="I53" t="n" s="0">
-        <v/>
+        <v>30.000000</v>
       </c>
       <c r="J53" t="n" s="0">
-        <v/>
+        <v>72.030000</v>
       </c>
       <c r="K53" t="n" s="0">
-        <v/>
+        <v>0.500000</v>
       </c>
       <c r="L53" t="n" s="0">
-        <v/>
+        <v>0.500000</v>
       </c>
       <c r="M53" t="n" s="0">
-        <v/>
+        <v>5.710000</v>
       </c>
       <c r="N53" t="n" s="0">
-        <v/>
+        <v>0.320000</v>
       </c>
       <c r="O53" t="n" s="0">
         <v/>
       </c>
-      <c r="P53" t="n" s="0">
-        <v/>
+      <c r="P53" t="s" s="0">
+        <v>132</v>
       </c>
       <c r="Q53" t="n" s="0">
-        <v/>
+        <v>2.500000</v>
       </c>
       <c r="R53" t="n" s="0">
-        <v/>
+        <v>73.750000</v>
       </c>
       <c r="S53" t="n" s="0">
-        <v/>
+        <v>14.500000</v>
       </c>
       <c r="T53" t="n" s="0">
-        <v/>
+        <v>7.750000</v>
       </c>
       <c r="U53" t="n" s="0">
-        <v/>
+        <v>8.500000</v>
       </c>
       <c r="V53" t="n" s="0">
-        <v/>
+        <v>4.250000</v>
       </c>
       <c r="W53" t="n" s="0">
-        <v/>
+        <v>12.000000</v>
       </c>
       <c r="X53" t="n" s="0">
-        <v/>
+        <v>23.000000</v>
       </c>
       <c r="Y53" t="n" s="0">
-        <v/>
+        <v>57.840000</v>
       </c>
       <c r="Z53" t="n" s="0">
-        <v/>
+        <v>0.500000</v>
       </c>
       <c r="AA53" t="n" s="0">
-        <v/>
+        <v>0.500000</v>
       </c>
       <c r="AB53" t="n" s="0">
-        <v/>
+        <v>5.710000</v>
       </c>
       <c r="AC53" t="n" s="0">
-        <v/>
+        <v>0.320000</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n" s="0">
-        <v/>
+      <c r="A54" t="s" s="0">
+        <v>133</v>
       </c>
       <c r="B54" t="n" s="0">
-        <v/>
+        <v>2.570000</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v/>
+        <v>82.860000</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v/>
+        <v>14.860000</v>
       </c>
       <c r="E54" t="n" s="0">
-        <v/>
+        <v>6.430000</v>
       </c>
       <c r="F54" t="n" s="0">
-        <v/>
+        <v>7.710000</v>
       </c>
       <c r="G54" t="n" s="0">
-        <v/>
+        <v>3.570000</v>
       </c>
       <c r="H54" t="n" s="0">
-        <v/>
+        <v>10.000000</v>
       </c>
       <c r="I54" t="n" s="0">
-        <v/>
+        <v>22.570000</v>
       </c>
       <c r="J54" t="n" s="0">
-        <v/>
+        <v>50.990000</v>
       </c>
       <c r="K54" t="n" s="0">
-        <v/>
+        <v>0.140000</v>
       </c>
       <c r="L54" t="n" s="0">
-        <v/>
+        <v>0.140000</v>
       </c>
       <c r="M54" t="n" s="0">
-        <v/>
+        <v>2.580000</v>
       </c>
       <c r="N54" t="n" s="0">
-        <v/>
+        <v>0.140000</v>
       </c>
       <c r="O54" t="n" s="0">
         <v/>
       </c>
-      <c r="P54" t="n" s="0">
-        <v/>
+      <c r="P54" t="s" s="0">
+        <v>134</v>
       </c>
       <c r="Q54" t="n" s="0">
-        <v/>
+        <v>2.570000</v>
       </c>
       <c r="R54" t="n" s="0">
-        <v/>
+        <v>83.000000</v>
       </c>
       <c r="S54" t="n" s="0">
-        <v/>
+        <v>13.570000</v>
       </c>
       <c r="T54" t="n" s="0">
-        <v/>
+        <v>6.000000</v>
       </c>
       <c r="U54" t="n" s="0">
-        <v/>
+        <v>7.570000</v>
       </c>
       <c r="V54" t="n" s="0">
-        <v/>
+        <v>3.570000</v>
       </c>
       <c r="W54" t="n" s="0">
-        <v/>
+        <v>9.570000</v>
       </c>
       <c r="X54" t="n" s="0">
-        <v/>
+        <v>21.140000</v>
       </c>
       <c r="Y54" t="n" s="0">
-        <v/>
+        <v>47.380000</v>
       </c>
       <c r="Z54" t="n" s="0">
-        <v/>
+        <v>0.140000</v>
       </c>
       <c r="AA54" t="n" s="0">
-        <v/>
+        <v>0.140000</v>
       </c>
       <c r="AB54" t="n" s="0">
-        <v/>
+        <v>2.580000</v>
       </c>
       <c r="AC54" t="n" s="0">
-        <v/>
+        <v>0.140000</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n" s="0">
-        <v/>
+      <c r="A55" t="s" s="0">
+        <v>135</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v/>
+        <v>1.600000</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v/>
+        <v>85.700000</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v/>
+        <v>5.400000</v>
       </c>
       <c r="E55" t="n" s="0">
-        <v/>
+        <v>3.800000</v>
       </c>
       <c r="F55" t="n" s="0">
-        <v/>
+        <v>3.200000</v>
       </c>
       <c r="G55" t="n" s="0">
-        <v/>
+        <v>2.300000</v>
       </c>
       <c r="H55" t="n" s="0">
-        <v/>
+        <v>6.100000</v>
       </c>
       <c r="I55" t="n" s="0">
-        <v/>
+        <v>8.600000</v>
       </c>
       <c r="J55" t="n" s="0">
-        <v/>
+        <v>20.570000</v>
       </c>
       <c r="K55" t="n" s="0">
-        <v/>
+        <v>0.600000</v>
       </c>
       <c r="L55" t="n" s="0">
-        <v/>
+        <v>0.220000</v>
       </c>
       <c r="M55" t="n" s="0">
-        <v/>
+        <v>11.170000</v>
       </c>
       <c r="N55" t="n" s="0">
-        <v/>
+        <v>0.620000</v>
       </c>
       <c r="O55" t="n" s="0">
         <v/>
       </c>
-      <c r="P55" t="n" s="0">
-        <v/>
+      <c r="P55" t="s" s="0">
+        <v>136</v>
       </c>
       <c r="Q55" t="n" s="0">
-        <v/>
+        <v>1.600000</v>
       </c>
       <c r="R55" t="n" s="0">
-        <v/>
+        <v>85.500000</v>
       </c>
       <c r="S55" t="n" s="0">
-        <v/>
+        <v>5.200000</v>
       </c>
       <c r="T55" t="n" s="0">
-        <v/>
+        <v>3.900000</v>
       </c>
       <c r="U55" t="n" s="0">
-        <v/>
+        <v>3.100000</v>
       </c>
       <c r="V55" t="n" s="0">
-        <v/>
+        <v>2.200000</v>
       </c>
       <c r="W55" t="n" s="0">
-        <v/>
+        <v>6.100000</v>
       </c>
       <c r="X55" t="n" s="0">
-        <v/>
+        <v>8.300000</v>
       </c>
       <c r="Y55" t="n" s="0">
-        <v/>
+        <v>20.210000</v>
       </c>
       <c r="Z55" t="n" s="0">
-        <v/>
+        <v>0.600000</v>
       </c>
       <c r="AA55" t="n" s="0">
-        <v/>
+        <v>0.220000</v>
       </c>
       <c r="AB55" t="n" s="0">
-        <v/>
+        <v>11.170000</v>
       </c>
       <c r="AC55" t="n" s="0">
-        <v/>
+        <v>0.620000</v>
       </c>
     </row>
     <row r="56">
@@ -20284,3118 +20284,3118 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="0">
-        <v>67</v>
+      <c r="A220" t="n" s="0">
+        <v/>
       </c>
       <c r="B220" t="n" s="0">
-        <v>2.830000</v>
+        <v/>
       </c>
       <c r="C220" t="n" s="0">
-        <v>79.980000</v>
+        <v/>
       </c>
       <c r="D220" t="n" s="0">
-        <v>18.670000</v>
+        <v/>
       </c>
       <c r="E220" t="n" s="0">
-        <v>6.580000</v>
+        <v/>
       </c>
       <c r="F220" t="n" s="0">
-        <v>9.830000</v>
+        <v/>
       </c>
       <c r="G220" t="n" s="0">
-        <v>2.710000</v>
+        <v/>
       </c>
       <c r="H220" t="n" s="0">
-        <v>9.290000</v>
+        <v/>
       </c>
       <c r="I220" t="n" s="0">
-        <v>28.500000</v>
+        <v/>
       </c>
       <c r="J220" t="n" s="0">
-        <v>46.750000</v>
+        <v/>
       </c>
       <c r="K220" t="n" s="0">
-        <v>0.045000</v>
+        <v/>
       </c>
       <c r="L220" t="n" s="0">
-        <v>0.023000</v>
+        <v/>
       </c>
       <c r="M220" t="n" s="0">
-        <v>0.790000</v>
+        <v/>
       </c>
       <c r="N220" t="n" s="0">
-        <v>0.044000</v>
+        <v/>
       </c>
       <c r="O220" t="n" s="0">
         <v/>
       </c>
-      <c r="P220" t="s" s="0">
-        <v>68</v>
+      <c r="P220" t="n" s="0">
+        <v/>
       </c>
       <c r="Q220" t="n" s="0">
-        <v>2.830000</v>
+        <v/>
       </c>
       <c r="R220" t="n" s="0">
-        <v>79.980000</v>
+        <v/>
       </c>
       <c r="S220" t="n" s="0">
-        <v>18.640000</v>
+        <v/>
       </c>
       <c r="T220" t="n" s="0">
-        <v>6.590000</v>
+        <v/>
       </c>
       <c r="U220" t="n" s="0">
-        <v>9.820000</v>
+        <v/>
       </c>
       <c r="V220" t="n" s="0">
-        <v>2.710000</v>
+        <v/>
       </c>
       <c r="W220" t="n" s="0">
-        <v>9.300000</v>
+        <v/>
       </c>
       <c r="X220" t="n" s="0">
-        <v>28.450000</v>
+        <v/>
       </c>
       <c r="Y220" t="n" s="0">
-        <v>46.820000</v>
+        <v/>
       </c>
       <c r="Z220" t="n" s="0">
-        <v>0.045000</v>
+        <v/>
       </c>
       <c r="AA220" t="n" s="0">
-        <v>0.023000</v>
+        <v/>
       </c>
       <c r="AB220" t="n" s="0">
-        <v>0.790000</v>
+        <v/>
       </c>
       <c r="AC220" t="n" s="0">
-        <v>0.044000</v>
+        <v/>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="0">
-        <v>69</v>
+      <c r="A221" t="n" s="0">
+        <v/>
       </c>
       <c r="B221" t="n" s="0">
-        <v>2.240000</v>
+        <v/>
       </c>
       <c r="C221" t="n" s="0">
-        <v>83.680000</v>
+        <v/>
       </c>
       <c r="D221" t="n" s="0">
-        <v>9.380000</v>
+        <v/>
       </c>
       <c r="E221" t="n" s="0">
-        <v>4.290000</v>
+        <v/>
       </c>
       <c r="F221" t="n" s="0">
-        <v>5.710000</v>
+        <v/>
       </c>
       <c r="G221" t="n" s="0">
-        <v>2.590000</v>
+        <v/>
       </c>
       <c r="H221" t="n" s="0">
-        <v>6.880000</v>
+        <v/>
       </c>
       <c r="I221" t="n" s="0">
-        <v>15.090000</v>
+        <v/>
       </c>
       <c r="J221" t="n" s="0">
-        <v>28.850000</v>
+        <v/>
       </c>
       <c r="K221" t="n" s="0">
-        <v>0.059000</v>
+        <v/>
       </c>
       <c r="L221" t="n" s="0">
-        <v>0.015000</v>
+        <v/>
       </c>
       <c r="M221" t="n" s="0">
-        <v>0.830000</v>
+        <v/>
       </c>
       <c r="N221" t="n" s="0">
-        <v>0.046000</v>
+        <v/>
       </c>
       <c r="O221" t="n" s="0">
         <v/>
       </c>
-      <c r="P221" t="s" s="0">
-        <v>70</v>
+      <c r="P221" t="n" s="0">
+        <v/>
       </c>
       <c r="Q221" t="n" s="0">
-        <v>2.240000</v>
+        <v/>
       </c>
       <c r="R221" t="n" s="0">
-        <v>83.710000</v>
+        <v/>
       </c>
       <c r="S221" t="n" s="0">
-        <v>9.290000</v>
+        <v/>
       </c>
       <c r="T221" t="n" s="0">
-        <v>4.320000</v>
+        <v/>
       </c>
       <c r="U221" t="n" s="0">
-        <v>5.740000</v>
+        <v/>
       </c>
       <c r="V221" t="n" s="0">
-        <v>2.680000</v>
+        <v/>
       </c>
       <c r="W221" t="n" s="0">
-        <v>7.000000</v>
+        <v/>
       </c>
       <c r="X221" t="n" s="0">
-        <v>15.030000</v>
+        <v/>
       </c>
       <c r="Y221" t="n" s="0">
-        <v>29.460000</v>
+        <v/>
       </c>
       <c r="Z221" t="n" s="0">
-        <v>0.059000</v>
+        <v/>
       </c>
       <c r="AA221" t="n" s="0">
-        <v>0.015000</v>
+        <v/>
       </c>
       <c r="AB221" t="n" s="0">
-        <v>0.830000</v>
+        <v/>
       </c>
       <c r="AC221" t="n" s="0">
-        <v>0.046000</v>
+        <v/>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="0">
-        <v>71</v>
+      <c r="A222" t="n" s="0">
+        <v/>
       </c>
       <c r="B222" t="n" s="0">
-        <v>5.230000</v>
+        <v/>
       </c>
       <c r="C222" t="n" s="0">
-        <v>69.680000</v>
+        <v/>
       </c>
       <c r="D222" t="n" s="0">
-        <v>18.450000</v>
+        <v/>
       </c>
       <c r="E222" t="n" s="0">
-        <v>6.650000</v>
+        <v/>
       </c>
       <c r="F222" t="n" s="0">
-        <v>18.290000</v>
+        <v/>
       </c>
       <c r="G222" t="n" s="0">
-        <v>5.000000</v>
+        <v/>
       </c>
       <c r="H222" t="n" s="0">
-        <v>11.650000</v>
+        <v/>
       </c>
       <c r="I222" t="n" s="0">
-        <v>36.740000</v>
+        <v/>
       </c>
       <c r="J222" t="n" s="0">
-        <v>61.550000</v>
+        <v/>
       </c>
       <c r="K222" t="n" s="0">
-        <v>0.390000</v>
+        <v/>
       </c>
       <c r="L222" t="n" s="0">
-        <v>0.019000</v>
+        <v/>
       </c>
       <c r="M222" t="n" s="0">
-        <v>5.900000</v>
+        <v/>
       </c>
       <c r="N222" t="n" s="0">
-        <v>0.330000</v>
+        <v/>
       </c>
       <c r="O222" t="n" s="0">
         <v/>
       </c>
-      <c r="P222" t="s" s="0">
-        <v>72</v>
+      <c r="P222" t="n" s="0">
+        <v/>
       </c>
       <c r="Q222" t="n" s="0">
-        <v>5.190000</v>
+        <v/>
       </c>
       <c r="R222" t="n" s="0">
-        <v>69.710000</v>
+        <v/>
       </c>
       <c r="S222" t="n" s="0">
-        <v>18.420000</v>
+        <v/>
       </c>
       <c r="T222" t="n" s="0">
-        <v>6.680000</v>
+        <v/>
       </c>
       <c r="U222" t="n" s="0">
-        <v>18.160000</v>
+        <v/>
       </c>
       <c r="V222" t="n" s="0">
-        <v>5.000000</v>
+        <v/>
       </c>
       <c r="W222" t="n" s="0">
-        <v>11.680000</v>
+        <v/>
       </c>
       <c r="X222" t="n" s="0">
-        <v>36.580000</v>
+        <v/>
       </c>
       <c r="Y222" t="n" s="0">
-        <v>61.640000</v>
+        <v/>
       </c>
       <c r="Z222" t="n" s="0">
-        <v>0.390000</v>
+        <v/>
       </c>
       <c r="AA222" t="n" s="0">
-        <v>0.019000</v>
+        <v/>
       </c>
       <c r="AB222" t="n" s="0">
-        <v>5.900000</v>
+        <v/>
       </c>
       <c r="AC222" t="n" s="0">
-        <v>0.330000</v>
+        <v/>
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="0">
-        <v>73</v>
+      <c r="A223" t="n" s="0">
+        <v/>
       </c>
       <c r="B223" t="n" s="0">
-        <v>5.310000</v>
+        <v/>
       </c>
       <c r="C223" t="n" s="0">
-        <v>78.870000</v>
+        <v/>
       </c>
       <c r="D223" t="n" s="0">
-        <v>10.350000</v>
+        <v/>
       </c>
       <c r="E223" t="n" s="0">
-        <v>4.910000</v>
+        <v/>
       </c>
       <c r="F223" t="n" s="0">
-        <v>11.470000</v>
+        <v/>
       </c>
       <c r="G223" t="n" s="0">
-        <v>3.350000</v>
+        <v/>
       </c>
       <c r="H223" t="n" s="0">
-        <v>8.260000</v>
+        <v/>
       </c>
       <c r="I223" t="n" s="0">
-        <v>21.820000</v>
+        <v/>
       </c>
       <c r="J223" t="n" s="0">
-        <v>37.210000</v>
+        <v/>
       </c>
       <c r="K223" t="n" s="0">
-        <v>2.330000</v>
+        <v/>
       </c>
       <c r="L223" t="n" s="0">
-        <v>0.038000</v>
+        <v/>
       </c>
       <c r="M223" t="n" s="0">
-        <v>384.740000</v>
+        <v/>
       </c>
       <c r="N223" t="n" s="0">
-        <v>21.370000</v>
+        <v/>
       </c>
       <c r="O223" t="n" s="0">
         <v/>
       </c>
-      <c r="P223" t="s" s="0">
-        <v>74</v>
+      <c r="P223" t="n" s="0">
+        <v/>
       </c>
       <c r="Q223" t="n" s="0">
-        <v>5.320000</v>
+        <v/>
       </c>
       <c r="R223" t="n" s="0">
-        <v>78.850000</v>
+        <v/>
       </c>
       <c r="S223" t="n" s="0">
-        <v>10.360000</v>
+        <v/>
       </c>
       <c r="T223" t="n" s="0">
-        <v>4.920000</v>
+        <v/>
       </c>
       <c r="U223" t="n" s="0">
-        <v>11.480000</v>
+        <v/>
       </c>
       <c r="V223" t="n" s="0">
-        <v>3.360000</v>
+        <v/>
       </c>
       <c r="W223" t="n" s="0">
-        <v>8.270000</v>
+        <v/>
       </c>
       <c r="X223" t="n" s="0">
-        <v>21.830000</v>
+        <v/>
       </c>
       <c r="Y223" t="n" s="0">
-        <v>37.280000</v>
+        <v/>
       </c>
       <c r="Z223" t="n" s="0">
-        <v>2.330000</v>
+        <v/>
       </c>
       <c r="AA223" t="n" s="0">
-        <v>0.038000</v>
+        <v/>
       </c>
       <c r="AB223" t="n" s="0">
-        <v>384.740000</v>
+        <v/>
       </c>
       <c r="AC223" t="n" s="0">
-        <v>21.370000</v>
+        <v/>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="0">
-        <v>75</v>
+      <c r="A224" t="n" s="0">
+        <v/>
       </c>
       <c r="B224" t="n" s="0">
-        <v>5.870000</v>
+        <v/>
       </c>
       <c r="C224" t="n" s="0">
-        <v>71.270000</v>
+        <v/>
       </c>
       <c r="D224" t="n" s="0">
-        <v>24.470000</v>
+        <v/>
       </c>
       <c r="E224" t="n" s="0">
-        <v>7.130000</v>
+        <v/>
       </c>
       <c r="F224" t="n" s="0">
-        <v>20.440000</v>
+        <v/>
       </c>
       <c r="G224" t="n" s="0">
-        <v>4.560000</v>
+        <v/>
       </c>
       <c r="H224" t="n" s="0">
-        <v>11.690000</v>
+        <v/>
       </c>
       <c r="I224" t="n" s="0">
-        <v>44.910000</v>
+        <v/>
       </c>
       <c r="J224" t="n" s="0">
-        <v>65.190000</v>
+        <v/>
       </c>
       <c r="K224" t="n" s="0">
-        <v>0.110000</v>
+        <v/>
       </c>
       <c r="L224" t="n" s="0">
-        <v>0.003000</v>
+        <v/>
       </c>
       <c r="M224" t="n" s="0">
-        <v>1.960000</v>
+        <v/>
       </c>
       <c r="N224" t="n" s="0">
-        <v>0.110000</v>
+        <v/>
       </c>
       <c r="O224" t="n" s="0">
         <v/>
       </c>
-      <c r="P224" t="s" s="0">
-        <v>76</v>
+      <c r="P224" t="n" s="0">
+        <v/>
       </c>
       <c r="Q224" t="n" s="0">
-        <v>5.890000</v>
+        <v/>
       </c>
       <c r="R224" t="n" s="0">
-        <v>70.850000</v>
+        <v/>
       </c>
       <c r="S224" t="n" s="0">
-        <v>24.620000</v>
+        <v/>
       </c>
       <c r="T224" t="n" s="0">
-        <v>7.160000</v>
+        <v/>
       </c>
       <c r="U224" t="n" s="0">
-        <v>20.490000</v>
+        <v/>
       </c>
       <c r="V224" t="n" s="0">
-        <v>4.550000</v>
+        <v/>
       </c>
       <c r="W224" t="n" s="0">
-        <v>11.710000</v>
+        <v/>
       </c>
       <c r="X224" t="n" s="0">
-        <v>45.110000</v>
+        <v/>
       </c>
       <c r="Y224" t="n" s="0">
-        <v>65.390000</v>
+        <v/>
       </c>
       <c r="Z224" t="n" s="0">
-        <v>0.110000</v>
+        <v/>
       </c>
       <c r="AA224" t="n" s="0">
-        <v>0.003000</v>
+        <v/>
       </c>
       <c r="AB224" t="n" s="0">
-        <v>1.960000</v>
+        <v/>
       </c>
       <c r="AC224" t="n" s="0">
-        <v>0.110000</v>
+        <v/>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="0">
-        <v>77</v>
+      <c r="A225" t="n" s="0">
+        <v/>
       </c>
       <c r="B225" t="n" s="0">
-        <v>4.190000</v>
+        <v/>
       </c>
       <c r="C225" t="n" s="0">
-        <v>72.120000</v>
+        <v/>
       </c>
       <c r="D225" t="n" s="0">
-        <v>19.930000</v>
+        <v/>
       </c>
       <c r="E225" t="n" s="0">
-        <v>8.910000</v>
+        <v/>
       </c>
       <c r="F225" t="n" s="0">
-        <v>18.600000</v>
+        <v/>
       </c>
       <c r="G225" t="n" s="0">
-        <v>4.510000</v>
+        <v/>
       </c>
       <c r="H225" t="n" s="0">
-        <v>13.420000</v>
+        <v/>
       </c>
       <c r="I225" t="n" s="0">
-        <v>38.530000</v>
+        <v/>
       </c>
       <c r="J225" t="n" s="0">
-        <v>73.860000</v>
+        <v/>
       </c>
       <c r="K225" t="n" s="0">
-        <v>0.700000</v>
+        <v/>
       </c>
       <c r="L225" t="n" s="0">
-        <v>0.070000</v>
+        <v/>
       </c>
       <c r="M225" t="n" s="0">
-        <v>143.600000</v>
+        <v/>
       </c>
       <c r="N225" t="n" s="0">
-        <v>7.980000</v>
+        <v/>
       </c>
       <c r="O225" t="n" s="0">
         <v/>
       </c>
-      <c r="P225" t="s" s="0">
-        <v>78</v>
+      <c r="P225" t="n" s="0">
+        <v/>
       </c>
       <c r="Q225" t="n" s="0">
-        <v>4.160000</v>
+        <v/>
       </c>
       <c r="R225" t="n" s="0">
-        <v>72.120000</v>
+        <v/>
       </c>
       <c r="S225" t="n" s="0">
-        <v>19.880000</v>
+        <v/>
       </c>
       <c r="T225" t="n" s="0">
-        <v>8.930000</v>
+        <v/>
       </c>
       <c r="U225" t="n" s="0">
-        <v>18.510000</v>
+        <v/>
       </c>
       <c r="V225" t="n" s="0">
-        <v>4.510000</v>
+        <v/>
       </c>
       <c r="W225" t="n" s="0">
-        <v>13.440000</v>
+        <v/>
       </c>
       <c r="X225" t="n" s="0">
-        <v>38.400000</v>
+        <v/>
       </c>
       <c r="Y225" t="n" s="0">
-        <v>73.950000</v>
+        <v/>
       </c>
       <c r="Z225" t="n" s="0">
-        <v>0.700000</v>
+        <v/>
       </c>
       <c r="AA225" t="n" s="0">
-        <v>0.070000</v>
+        <v/>
       </c>
       <c r="AB225" t="n" s="0">
-        <v>143.600000</v>
+        <v/>
       </c>
       <c r="AC225" t="n" s="0">
-        <v>7.980000</v>
+        <v/>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="0">
-        <v>79</v>
+      <c r="A226" t="n" s="0">
+        <v/>
       </c>
       <c r="B226" t="n" s="0">
-        <v>5.100000</v>
+        <v/>
       </c>
       <c r="C226" t="n" s="0">
-        <v>69.710000</v>
+        <v/>
       </c>
       <c r="D226" t="n" s="0">
-        <v>22.520000</v>
+        <v/>
       </c>
       <c r="E226" t="n" s="0">
-        <v>9.520000</v>
+        <v/>
       </c>
       <c r="F226" t="n" s="0">
-        <v>17.900000</v>
+        <v/>
       </c>
       <c r="G226" t="n" s="0">
-        <v>5.570000</v>
+        <v/>
       </c>
       <c r="H226" t="n" s="0">
-        <v>15.100000</v>
+        <v/>
       </c>
       <c r="I226" t="n" s="0">
-        <v>40.430000</v>
+        <v/>
       </c>
       <c r="J226" t="n" s="0">
-        <v>84.120000</v>
+        <v/>
       </c>
       <c r="K226" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="L226" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="M226" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="N226" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="O226" t="n" s="0">
         <v/>
       </c>
-      <c r="P226" t="s" s="0">
-        <v>80</v>
+      <c r="P226" t="n" s="0">
+        <v/>
       </c>
       <c r="Q226" t="n" s="0">
-        <v>5.240000</v>
+        <v/>
       </c>
       <c r="R226" t="n" s="0">
-        <v>69.520000</v>
+        <v/>
       </c>
       <c r="S226" t="n" s="0">
-        <v>22.950000</v>
+        <v/>
       </c>
       <c r="T226" t="n" s="0">
-        <v>9.670000</v>
+        <v/>
       </c>
       <c r="U226" t="n" s="0">
-        <v>18.430000</v>
+        <v/>
       </c>
       <c r="V226" t="n" s="0">
-        <v>5.570000</v>
+        <v/>
       </c>
       <c r="W226" t="n" s="0">
-        <v>15.240000</v>
+        <v/>
       </c>
       <c r="X226" t="n" s="0">
-        <v>41.380000</v>
+        <v/>
       </c>
       <c r="Y226" t="n" s="0">
-        <v>85.370000</v>
+        <v/>
       </c>
       <c r="Z226" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="AA226" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="AB226" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="AC226" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="0">
-        <v>81</v>
+      <c r="A227" t="n" s="0">
+        <v/>
       </c>
       <c r="B227" t="n" s="0">
-        <v>7.670000</v>
+        <v/>
       </c>
       <c r="C227" t="n" s="0">
-        <v>65.830000</v>
+        <v/>
       </c>
       <c r="D227" t="n" s="0">
-        <v>22.500000</v>
+        <v/>
       </c>
       <c r="E227" t="n" s="0">
-        <v>7.000000</v>
+        <v/>
       </c>
       <c r="F227" t="n" s="0">
-        <v>21.670000</v>
+        <v/>
       </c>
       <c r="G227" t="n" s="0">
-        <v>6.670000</v>
+        <v/>
       </c>
       <c r="H227" t="n" s="0">
-        <v>13.670000</v>
+        <v/>
       </c>
       <c r="I227" t="n" s="0">
-        <v>44.170000</v>
+        <v/>
       </c>
       <c r="J227" t="n" s="0">
-        <v>74.520000</v>
+        <v/>
       </c>
       <c r="K227" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="L227" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="M227" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="N227" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="O227" t="n" s="0">
         <v/>
       </c>
-      <c r="P227" t="s" s="0">
-        <v>82</v>
+      <c r="P227" t="n" s="0">
+        <v/>
       </c>
       <c r="Q227" t="n" s="0">
-        <v>7.330000</v>
+        <v/>
       </c>
       <c r="R227" t="n" s="0">
-        <v>66.330000</v>
+        <v/>
       </c>
       <c r="S227" t="n" s="0">
-        <v>22.000000</v>
+        <v/>
       </c>
       <c r="T227" t="n" s="0">
-        <v>7.000000</v>
+        <v/>
       </c>
       <c r="U227" t="n" s="0">
-        <v>20.500000</v>
+        <v/>
       </c>
       <c r="V227" t="n" s="0">
-        <v>6.170000</v>
+        <v/>
       </c>
       <c r="W227" t="n" s="0">
-        <v>13.170000</v>
+        <v/>
       </c>
       <c r="X227" t="n" s="0">
-        <v>42.500000</v>
+        <v/>
       </c>
       <c r="Y227" t="n" s="0">
-        <v>71.230000</v>
+        <v/>
       </c>
       <c r="Z227" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="AA227" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="AB227" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="AC227" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="0">
-        <v>83</v>
+      <c r="A228" t="n" s="0">
+        <v/>
       </c>
       <c r="B228" t="n" s="0">
-        <v>4.330000</v>
+        <v/>
       </c>
       <c r="C228" t="n" s="0">
-        <v>77.330000</v>
+        <v/>
       </c>
       <c r="D228" t="n" s="0">
-        <v>15.470000</v>
+        <v/>
       </c>
       <c r="E228" t="n" s="0">
-        <v>6.330000</v>
+        <v/>
       </c>
       <c r="F228" t="n" s="0">
-        <v>15.530000</v>
+        <v/>
       </c>
       <c r="G228" t="n" s="0">
-        <v>4.270000</v>
+        <v/>
       </c>
       <c r="H228" t="n" s="0">
-        <v>10.600000</v>
+        <v/>
       </c>
       <c r="I228" t="n" s="0">
-        <v>31.000000</v>
+        <v/>
       </c>
       <c r="J228" t="n" s="0">
-        <v>54.270000</v>
+        <v/>
       </c>
       <c r="K228" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="L228" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="M228" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="N228" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="O228" t="n" s="0">
         <v/>
       </c>
-      <c r="P228" t="s" s="0">
-        <v>84</v>
+      <c r="P228" t="n" s="0">
+        <v/>
       </c>
       <c r="Q228" t="n" s="0">
-        <v>4.270000</v>
+        <v/>
       </c>
       <c r="R228" t="n" s="0">
-        <v>77.400000</v>
+        <v/>
       </c>
       <c r="S228" t="n" s="0">
-        <v>15.330000</v>
+        <v/>
       </c>
       <c r="T228" t="n" s="0">
-        <v>6.330000</v>
+        <v/>
       </c>
       <c r="U228" t="n" s="0">
-        <v>15.400000</v>
+        <v/>
       </c>
       <c r="V228" t="n" s="0">
-        <v>4.270000</v>
+        <v/>
       </c>
       <c r="W228" t="n" s="0">
-        <v>10.600000</v>
+        <v/>
       </c>
       <c r="X228" t="n" s="0">
-        <v>30.730000</v>
+        <v/>
       </c>
       <c r="Y228" t="n" s="0">
-        <v>54.110000</v>
+        <v/>
       </c>
       <c r="Z228" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="AA228" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="AB228" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="AC228" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s" s="0">
-        <v>85</v>
+      <c r="A229" t="n" s="0">
+        <v/>
       </c>
       <c r="B229" t="n" s="0">
-        <v>9.600000</v>
+        <v/>
       </c>
       <c r="C229" t="n" s="0">
-        <v>67.710000</v>
+        <v/>
       </c>
       <c r="D229" t="n" s="0">
-        <v>34.380000</v>
+        <v/>
       </c>
       <c r="E229" t="n" s="0">
-        <v>12.520000</v>
+        <v/>
       </c>
       <c r="F229" t="n" s="0">
-        <v>31.640000</v>
+        <v/>
       </c>
       <c r="G229" t="n" s="0">
-        <v>5.400000</v>
+        <v/>
       </c>
       <c r="H229" t="n" s="0">
-        <v>17.930000</v>
+        <v/>
       </c>
       <c r="I229" t="n" s="0">
-        <v>66.020000</v>
+        <v/>
       </c>
       <c r="J229" t="n" s="0">
-        <v>111.880000</v>
+        <v/>
       </c>
       <c r="K229" t="n" s="0">
-        <v>0.690000</v>
+        <v/>
       </c>
       <c r="L229" t="n" s="0">
-        <v>0.013000</v>
+        <v/>
       </c>
       <c r="M229" t="n" s="0">
-        <v>647.940000</v>
+        <v/>
       </c>
       <c r="N229" t="n" s="0">
-        <v>36.000000</v>
+        <v/>
       </c>
       <c r="O229" t="n" s="0">
         <v/>
       </c>
-      <c r="P229" t="s" s="0">
-        <v>86</v>
+      <c r="P229" t="n" s="0">
+        <v/>
       </c>
       <c r="Q229" t="n" s="0">
-        <v>9.600000</v>
+        <v/>
       </c>
       <c r="R229" t="n" s="0">
-        <v>67.710000</v>
+        <v/>
       </c>
       <c r="S229" t="n" s="0">
-        <v>34.310000</v>
+        <v/>
       </c>
       <c r="T229" t="n" s="0">
-        <v>12.550000</v>
+        <v/>
       </c>
       <c r="U229" t="n" s="0">
-        <v>31.570000</v>
+        <v/>
       </c>
       <c r="V229" t="n" s="0">
-        <v>5.380000</v>
+        <v/>
       </c>
       <c r="W229" t="n" s="0">
-        <v>17.930000</v>
+        <v/>
       </c>
       <c r="X229" t="n" s="0">
-        <v>65.880000</v>
+        <v/>
       </c>
       <c r="Y229" t="n" s="0">
-        <v>111.810000</v>
+        <v/>
       </c>
       <c r="Z229" t="n" s="0">
-        <v>0.690000</v>
+        <v/>
       </c>
       <c r="AA229" t="n" s="0">
-        <v>0.013000</v>
+        <v/>
       </c>
       <c r="AB229" t="n" s="0">
-        <v>647.940000</v>
+        <v/>
       </c>
       <c r="AC229" t="n" s="0">
-        <v>36.000000</v>
+        <v/>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="0">
-        <v>87</v>
+      <c r="A230" t="n" s="0">
+        <v/>
       </c>
       <c r="B230" t="n" s="0">
-        <v>3.110000</v>
+        <v/>
       </c>
       <c r="C230" t="n" s="0">
-        <v>77.560000</v>
+        <v/>
       </c>
       <c r="D230" t="n" s="0">
-        <v>12.110000</v>
+        <v/>
       </c>
       <c r="E230" t="n" s="0">
-        <v>5.560000</v>
+        <v/>
       </c>
       <c r="F230" t="n" s="0">
-        <v>10.440000</v>
+        <v/>
       </c>
       <c r="G230" t="n" s="0">
-        <v>3.000000</v>
+        <v/>
       </c>
       <c r="H230" t="n" s="0">
-        <v>8.560000</v>
+        <v/>
       </c>
       <c r="I230" t="n" s="0">
-        <v>22.560000</v>
+        <v/>
       </c>
       <c r="J230" t="n" s="0">
-        <v>40.270000</v>
+        <v/>
       </c>
       <c r="K230" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="L230" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="M230" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="N230" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="O230" t="n" s="0">
         <v/>
       </c>
-      <c r="P230" t="s" s="0">
-        <v>88</v>
+      <c r="P230" t="n" s="0">
+        <v/>
       </c>
       <c r="Q230" t="n" s="0">
-        <v>4.330000</v>
+        <v/>
       </c>
       <c r="R230" t="n" s="0">
-        <v>76.780000</v>
+        <v/>
       </c>
       <c r="S230" t="n" s="0">
-        <v>13.670000</v>
+        <v/>
       </c>
       <c r="T230" t="n" s="0">
-        <v>5.890000</v>
+        <v/>
       </c>
       <c r="U230" t="n" s="0">
-        <v>14.330000</v>
+        <v/>
       </c>
       <c r="V230" t="n" s="0">
-        <v>3.110000</v>
+        <v/>
       </c>
       <c r="W230" t="n" s="0">
-        <v>9.000000</v>
+        <v/>
       </c>
       <c r="X230" t="n" s="0">
-        <v>28.000000</v>
+        <v/>
       </c>
       <c r="Y230" t="n" s="0">
-        <v>45.180000</v>
+        <v/>
       </c>
       <c r="Z230" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="AA230" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="AB230" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="AC230" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="0">
-        <v>89</v>
+      <c r="A231" t="n" s="0">
+        <v/>
       </c>
       <c r="B231" t="n" s="0">
-        <v>3.110000</v>
+        <v/>
       </c>
       <c r="C231" t="n" s="0">
-        <v>77.560000</v>
+        <v/>
       </c>
       <c r="D231" t="n" s="0">
-        <v>12.110000</v>
+        <v/>
       </c>
       <c r="E231" t="n" s="0">
-        <v>5.560000</v>
+        <v/>
       </c>
       <c r="F231" t="n" s="0">
-        <v>10.440000</v>
+        <v/>
       </c>
       <c r="G231" t="n" s="0">
-        <v>3.000000</v>
+        <v/>
       </c>
       <c r="H231" t="n" s="0">
-        <v>8.560000</v>
+        <v/>
       </c>
       <c r="I231" t="n" s="0">
-        <v>22.560000</v>
+        <v/>
       </c>
       <c r="J231" t="n" s="0">
-        <v>40.270000</v>
+        <v/>
       </c>
       <c r="K231" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="L231" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="M231" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="N231" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="O231" t="n" s="0">
         <v/>
       </c>
-      <c r="P231" t="s" s="0">
-        <v>90</v>
+      <c r="P231" t="n" s="0">
+        <v/>
       </c>
       <c r="Q231" t="n" s="0">
-        <v>5.000000</v>
+        <v/>
       </c>
       <c r="R231" t="n" s="0">
-        <v>76.560000</v>
+        <v/>
       </c>
       <c r="S231" t="n" s="0">
-        <v>14.670000</v>
+        <v/>
       </c>
       <c r="T231" t="n" s="0">
-        <v>6.220000</v>
+        <v/>
       </c>
       <c r="U231" t="n" s="0">
-        <v>16.890000</v>
+        <v/>
       </c>
       <c r="V231" t="n" s="0">
-        <v>3.110000</v>
+        <v/>
       </c>
       <c r="W231" t="n" s="0">
-        <v>9.330000</v>
+        <v/>
       </c>
       <c r="X231" t="n" s="0">
-        <v>31.560000</v>
+        <v/>
       </c>
       <c r="Y231" t="n" s="0">
-        <v>48.590000</v>
+        <v/>
       </c>
       <c r="Z231" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="AA231" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="AB231" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="AC231" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="0">
-        <v>91</v>
+      <c r="A232" t="n" s="0">
+        <v/>
       </c>
       <c r="B232" t="n" s="0">
-        <v>4.380000</v>
+        <v/>
       </c>
       <c r="C232" t="n" s="0">
-        <v>78.060000</v>
+        <v/>
       </c>
       <c r="D232" t="n" s="0">
-        <v>15.190000</v>
+        <v/>
       </c>
       <c r="E232" t="n" s="0">
-        <v>6.190000</v>
+        <v/>
       </c>
       <c r="F232" t="n" s="0">
-        <v>16.120000</v>
+        <v/>
       </c>
       <c r="G232" t="n" s="0">
-        <v>4.120000</v>
+        <v/>
       </c>
       <c r="H232" t="n" s="0">
-        <v>10.310000</v>
+        <v/>
       </c>
       <c r="I232" t="n" s="0">
-        <v>31.310000</v>
+        <v/>
       </c>
       <c r="J232" t="n" s="0">
-        <v>53.560000</v>
+        <v/>
       </c>
       <c r="K232" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="L232" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="M232" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="N232" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="O232" t="n" s="0">
         <v/>
       </c>
-      <c r="P232" t="s" s="0">
-        <v>92</v>
+      <c r="P232" t="n" s="0">
+        <v/>
       </c>
       <c r="Q232" t="n" s="0">
-        <v>4.190000</v>
+        <v/>
       </c>
       <c r="R232" t="n" s="0">
-        <v>78.620000</v>
+        <v/>
       </c>
       <c r="S232" t="n" s="0">
-        <v>14.690000</v>
+        <v/>
       </c>
       <c r="T232" t="n" s="0">
-        <v>6.060000</v>
+        <v/>
       </c>
       <c r="U232" t="n" s="0">
-        <v>15.440000</v>
+        <v/>
       </c>
       <c r="V232" t="n" s="0">
-        <v>4.120000</v>
+        <v/>
       </c>
       <c r="W232" t="n" s="0">
-        <v>10.190000</v>
+        <v/>
       </c>
       <c r="X232" t="n" s="0">
-        <v>30.120000</v>
+        <v/>
       </c>
       <c r="Y232" t="n" s="0">
-        <v>52.360000</v>
+        <v/>
       </c>
       <c r="Z232" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="AA232" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="AB232" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="AC232" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="0">
-        <v>93</v>
+      <c r="A233" t="n" s="0">
+        <v/>
       </c>
       <c r="B233" t="n" s="0">
-        <v>2.660000</v>
+        <v/>
       </c>
       <c r="C233" t="n" s="0">
-        <v>82.900000</v>
+        <v/>
       </c>
       <c r="D233" t="n" s="0">
-        <v>7.020000</v>
+        <v/>
       </c>
       <c r="E233" t="n" s="0">
-        <v>4.000000</v>
+        <v/>
       </c>
       <c r="F233" t="n" s="0">
-        <v>6.800000</v>
+        <v/>
       </c>
       <c r="G233" t="n" s="0">
-        <v>2.900000</v>
+        <v/>
       </c>
       <c r="H233" t="n" s="0">
-        <v>6.900000</v>
+        <v/>
       </c>
       <c r="I233" t="n" s="0">
-        <v>13.830000</v>
+        <v/>
       </c>
       <c r="J233" t="n" s="0">
-        <v>28.120000</v>
+        <v/>
       </c>
       <c r="K233" t="n" s="0">
-        <v>0.560000</v>
+        <v/>
       </c>
       <c r="L233" t="n" s="0">
-        <v>0.120000</v>
+        <v/>
       </c>
       <c r="M233" t="n" s="0">
-        <v>6.300000</v>
+        <v/>
       </c>
       <c r="N233" t="n" s="0">
-        <v>0.350000</v>
+        <v/>
       </c>
       <c r="O233" t="n" s="0">
         <v/>
       </c>
-      <c r="P233" t="s" s="0">
-        <v>94</v>
+      <c r="P233" t="n" s="0">
+        <v/>
       </c>
       <c r="Q233" t="n" s="0">
-        <v>2.630000</v>
+        <v/>
       </c>
       <c r="R233" t="n" s="0">
-        <v>82.950000</v>
+        <v/>
       </c>
       <c r="S233" t="n" s="0">
-        <v>7.020000</v>
+        <v/>
       </c>
       <c r="T233" t="n" s="0">
-        <v>4.020000</v>
+        <v/>
       </c>
       <c r="U233" t="n" s="0">
-        <v>6.710000</v>
+        <v/>
       </c>
       <c r="V233" t="n" s="0">
-        <v>2.900000</v>
+        <v/>
       </c>
       <c r="W233" t="n" s="0">
-        <v>6.930000</v>
+        <v/>
       </c>
       <c r="X233" t="n" s="0">
-        <v>13.730000</v>
+        <v/>
       </c>
       <c r="Y233" t="n" s="0">
-        <v>28.180000</v>
+        <v/>
       </c>
       <c r="Z233" t="n" s="0">
-        <v>0.560000</v>
+        <v/>
       </c>
       <c r="AA233" t="n" s="0">
-        <v>0.120000</v>
+        <v/>
       </c>
       <c r="AB233" t="n" s="0">
-        <v>6.300000</v>
+        <v/>
       </c>
       <c r="AC233" t="n" s="0">
-        <v>0.350000</v>
+        <v/>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="0">
-        <v>95</v>
+      <c r="A234" t="n" s="0">
+        <v/>
       </c>
       <c r="B234" t="n" s="0">
-        <v>1.850000</v>
+        <v/>
       </c>
       <c r="C234" t="n" s="0">
-        <v>90.700000</v>
+        <v/>
       </c>
       <c r="D234" t="n" s="0">
-        <v>3.760000</v>
+        <v/>
       </c>
       <c r="E234" t="n" s="0">
-        <v>3.120000</v>
+        <v/>
       </c>
       <c r="F234" t="n" s="0">
-        <v>4.000000</v>
+        <v/>
       </c>
       <c r="G234" t="n" s="0">
-        <v>1.910000</v>
+        <v/>
       </c>
       <c r="H234" t="n" s="0">
-        <v>5.030000</v>
+        <v/>
       </c>
       <c r="I234" t="n" s="0">
-        <v>7.760000</v>
+        <v/>
       </c>
       <c r="J234" t="n" s="0">
-        <v>17.510000</v>
+        <v/>
       </c>
       <c r="K234" t="n" s="0">
-        <v>0.940000</v>
+        <v/>
       </c>
       <c r="L234" t="n" s="0">
-        <v>0.092000</v>
+        <v/>
       </c>
       <c r="M234" t="n" s="0">
-        <v>17.550000</v>
+        <v/>
       </c>
       <c r="N234" t="n" s="0">
-        <v>0.980000</v>
+        <v/>
       </c>
       <c r="O234" t="n" s="0">
         <v/>
       </c>
-      <c r="P234" t="s" s="0">
-        <v>96</v>
+      <c r="P234" t="n" s="0">
+        <v/>
       </c>
       <c r="Q234" t="n" s="0">
-        <v>1.790000</v>
+        <v/>
       </c>
       <c r="R234" t="n" s="0">
-        <v>90.700000</v>
+        <v/>
       </c>
       <c r="S234" t="n" s="0">
-        <v>3.640000</v>
+        <v/>
       </c>
       <c r="T234" t="n" s="0">
-        <v>3.120000</v>
+        <v/>
       </c>
       <c r="U234" t="n" s="0">
-        <v>3.820000</v>
+        <v/>
       </c>
       <c r="V234" t="n" s="0">
-        <v>1.820000</v>
+        <v/>
       </c>
       <c r="W234" t="n" s="0">
-        <v>4.940000</v>
+        <v/>
       </c>
       <c r="X234" t="n" s="0">
-        <v>7.450000</v>
+        <v/>
       </c>
       <c r="Y234" t="n" s="0">
-        <v>16.750000</v>
+        <v/>
       </c>
       <c r="Z234" t="n" s="0">
-        <v>0.940000</v>
+        <v/>
       </c>
       <c r="AA234" t="n" s="0">
-        <v>0.092000</v>
+        <v/>
       </c>
       <c r="AB234" t="n" s="0">
-        <v>17.550000</v>
+        <v/>
       </c>
       <c r="AC234" t="n" s="0">
-        <v>0.980000</v>
+        <v/>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="0">
-        <v>97</v>
+      <c r="A235" t="n" s="0">
+        <v/>
       </c>
       <c r="B235" t="n" s="0">
-        <v>2.860000</v>
+        <v/>
       </c>
       <c r="C235" t="n" s="0">
-        <v>81.180000</v>
+        <v/>
       </c>
       <c r="D235" t="n" s="0">
-        <v>10.000000</v>
+        <v/>
       </c>
       <c r="E235" t="n" s="0">
-        <v>4.360000</v>
+        <v/>
       </c>
       <c r="F235" t="n" s="0">
-        <v>7.590000</v>
+        <v/>
       </c>
       <c r="G235" t="n" s="0">
-        <v>2.950000</v>
+        <v/>
       </c>
       <c r="H235" t="n" s="0">
-        <v>7.320000</v>
+        <v/>
       </c>
       <c r="I235" t="n" s="0">
-        <v>17.590000</v>
+        <v/>
       </c>
       <c r="J235" t="n" s="0">
-        <v>31.690000</v>
+        <v/>
       </c>
       <c r="K235" t="n" s="0">
-        <v>0.140000</v>
+        <v/>
       </c>
       <c r="L235" t="n" s="0">
-        <v>0.015000</v>
+        <v/>
       </c>
       <c r="M235" t="n" s="0">
-        <v>2.160000</v>
+        <v/>
       </c>
       <c r="N235" t="n" s="0">
-        <v>0.120000</v>
+        <v/>
       </c>
       <c r="O235" t="n" s="0">
         <v/>
       </c>
-      <c r="P235" t="s" s="0">
-        <v>98</v>
+      <c r="P235" t="n" s="0">
+        <v/>
       </c>
       <c r="Q235" t="n" s="0">
-        <v>2.860000</v>
+        <v/>
       </c>
       <c r="R235" t="n" s="0">
-        <v>81.140000</v>
+        <v/>
       </c>
       <c r="S235" t="n" s="0">
-        <v>10.000000</v>
+        <v/>
       </c>
       <c r="T235" t="n" s="0">
-        <v>4.410000</v>
+        <v/>
       </c>
       <c r="U235" t="n" s="0">
-        <v>7.550000</v>
+        <v/>
       </c>
       <c r="V235" t="n" s="0">
-        <v>2.950000</v>
+        <v/>
       </c>
       <c r="W235" t="n" s="0">
-        <v>7.360000</v>
+        <v/>
       </c>
       <c r="X235" t="n" s="0">
-        <v>17.550000</v>
+        <v/>
       </c>
       <c r="Y235" t="n" s="0">
-        <v>31.910000</v>
+        <v/>
       </c>
       <c r="Z235" t="n" s="0">
-        <v>0.140000</v>
+        <v/>
       </c>
       <c r="AA235" t="n" s="0">
-        <v>0.015000</v>
+        <v/>
       </c>
       <c r="AB235" t="n" s="0">
-        <v>2.160000</v>
+        <v/>
       </c>
       <c r="AC235" t="n" s="0">
-        <v>0.120000</v>
+        <v/>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="0">
-        <v>99</v>
+      <c r="A236" t="n" s="0">
+        <v/>
       </c>
       <c r="B236" t="n" s="0">
-        <v>5.000000</v>
+        <v/>
       </c>
       <c r="C236" t="n" s="0">
-        <v>73.000000</v>
+        <v/>
       </c>
       <c r="D236" t="n" s="0">
-        <v>14.440000</v>
+        <v/>
       </c>
       <c r="E236" t="n" s="0">
-        <v>5.780000</v>
+        <v/>
       </c>
       <c r="F236" t="n" s="0">
-        <v>14.780000</v>
+        <v/>
       </c>
       <c r="G236" t="n" s="0">
-        <v>4.110000</v>
+        <v/>
       </c>
       <c r="H236" t="n" s="0">
-        <v>9.890000</v>
+        <v/>
       </c>
       <c r="I236" t="n" s="0">
-        <v>29.220000</v>
+        <v/>
       </c>
       <c r="J236" t="n" s="0">
-        <v>49.970000</v>
+        <v/>
       </c>
       <c r="K236" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="L236" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="M236" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="N236" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="O236" t="n" s="0">
         <v/>
       </c>
-      <c r="P236" t="s" s="0">
-        <v>100</v>
+      <c r="P236" t="n" s="0">
+        <v/>
       </c>
       <c r="Q236" t="n" s="0">
-        <v>5.000000</v>
+        <v/>
       </c>
       <c r="R236" t="n" s="0">
-        <v>72.700000</v>
+        <v/>
       </c>
       <c r="S236" t="n" s="0">
-        <v>13.900000</v>
+        <v/>
       </c>
       <c r="T236" t="n" s="0">
-        <v>5.600000</v>
+        <v/>
       </c>
       <c r="U236" t="n" s="0">
-        <v>14.900000</v>
+        <v/>
       </c>
       <c r="V236" t="n" s="0">
-        <v>4.200000</v>
+        <v/>
       </c>
       <c r="W236" t="n" s="0">
-        <v>9.800000</v>
+        <v/>
       </c>
       <c r="X236" t="n" s="0">
-        <v>28.800000</v>
+        <v/>
       </c>
       <c r="Y236" t="n" s="0">
-        <v>49.160000</v>
+        <v/>
       </c>
       <c r="Z236" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="AA236" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="AB236" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="AC236" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="0">
-        <v>101</v>
+      <c r="A237" t="n" s="0">
+        <v/>
       </c>
       <c r="B237" t="n" s="0">
-        <v>1.760000</v>
+        <v/>
       </c>
       <c r="C237" t="n" s="0">
-        <v>90.820000</v>
+        <v/>
       </c>
       <c r="D237" t="n" s="0">
-        <v>3.580000</v>
+        <v/>
       </c>
       <c r="E237" t="n" s="0">
-        <v>3.060000</v>
+        <v/>
       </c>
       <c r="F237" t="n" s="0">
-        <v>3.730000</v>
+        <v/>
       </c>
       <c r="G237" t="n" s="0">
-        <v>1.850000</v>
+        <v/>
       </c>
       <c r="H237" t="n" s="0">
-        <v>4.910000</v>
+        <v/>
       </c>
       <c r="I237" t="n" s="0">
-        <v>7.300000</v>
+        <v/>
       </c>
       <c r="J237" t="n" s="0">
-        <v>16.510000</v>
+        <v/>
       </c>
       <c r="K237" t="n" s="0">
-        <v>0.940000</v>
+        <v/>
       </c>
       <c r="L237" t="n" s="0">
-        <v>0.092000</v>
+        <v/>
       </c>
       <c r="M237" t="n" s="0">
-        <v>17.550000</v>
+        <v/>
       </c>
       <c r="N237" t="n" s="0">
-        <v>0.980000</v>
+        <v/>
       </c>
       <c r="O237" t="n" s="0">
         <v/>
       </c>
-      <c r="P237" t="s" s="0">
-        <v>102</v>
+      <c r="P237" t="n" s="0">
+        <v/>
       </c>
       <c r="Q237" t="n" s="0">
-        <v>1.730000</v>
+        <v/>
       </c>
       <c r="R237" t="n" s="0">
-        <v>90.820000</v>
+        <v/>
       </c>
       <c r="S237" t="n" s="0">
-        <v>3.480000</v>
+        <v/>
       </c>
       <c r="T237" t="n" s="0">
-        <v>3.090000</v>
+        <v/>
       </c>
       <c r="U237" t="n" s="0">
-        <v>3.580000</v>
+        <v/>
       </c>
       <c r="V237" t="n" s="0">
-        <v>1.820000</v>
+        <v/>
       </c>
       <c r="W237" t="n" s="0">
-        <v>4.910000</v>
+        <v/>
       </c>
       <c r="X237" t="n" s="0">
-        <v>7.060000</v>
+        <v/>
       </c>
       <c r="Y237" t="n" s="0">
-        <v>16.330000</v>
+        <v/>
       </c>
       <c r="Z237" t="n" s="0">
-        <v>0.940000</v>
+        <v/>
       </c>
       <c r="AA237" t="n" s="0">
-        <v>0.092000</v>
+        <v/>
       </c>
       <c r="AB237" t="n" s="0">
-        <v>17.550000</v>
+        <v/>
       </c>
       <c r="AC237" t="n" s="0">
-        <v>0.980000</v>
+        <v/>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="0">
-        <v>103</v>
+      <c r="A238" t="n" s="0">
+        <v/>
       </c>
       <c r="B238" t="n" s="0">
-        <v>2.390000</v>
+        <v/>
       </c>
       <c r="C238" t="n" s="0">
-        <v>81.000000</v>
+        <v/>
       </c>
       <c r="D238" t="n" s="0">
-        <v>9.500000</v>
+        <v/>
       </c>
       <c r="E238" t="n" s="0">
-        <v>5.640000</v>
+        <v/>
       </c>
       <c r="F238" t="n" s="0">
-        <v>6.640000</v>
+        <v/>
       </c>
       <c r="G238" t="n" s="0">
-        <v>2.710000</v>
+        <v/>
       </c>
       <c r="H238" t="n" s="0">
-        <v>8.360000</v>
+        <v/>
       </c>
       <c r="I238" t="n" s="0">
-        <v>16.140000</v>
+        <v/>
       </c>
       <c r="J238" t="n" s="0">
-        <v>33.640000</v>
+        <v/>
       </c>
       <c r="K238" t="n" s="0">
-        <v>0.071000</v>
+        <v/>
       </c>
       <c r="L238" t="n" s="0">
-        <v>0.071000</v>
+        <v/>
       </c>
       <c r="M238" t="n" s="0">
-        <v>0.330000</v>
+        <v/>
       </c>
       <c r="N238" t="n" s="0">
-        <v>0.018000</v>
+        <v/>
       </c>
       <c r="O238" t="n" s="0">
         <v/>
       </c>
-      <c r="P238" t="s" s="0">
-        <v>104</v>
+      <c r="P238" t="n" s="0">
+        <v/>
       </c>
       <c r="Q238" t="n" s="0">
-        <v>2.390000</v>
+        <v/>
       </c>
       <c r="R238" t="n" s="0">
-        <v>81.140000</v>
+        <v/>
       </c>
       <c r="S238" t="n" s="0">
-        <v>9.390000</v>
+        <v/>
       </c>
       <c r="T238" t="n" s="0">
-        <v>5.680000</v>
+        <v/>
       </c>
       <c r="U238" t="n" s="0">
-        <v>6.460000</v>
+        <v/>
       </c>
       <c r="V238" t="n" s="0">
-        <v>2.610000</v>
+        <v/>
       </c>
       <c r="W238" t="n" s="0">
-        <v>8.290000</v>
+        <v/>
       </c>
       <c r="X238" t="n" s="0">
-        <v>15.860000</v>
+        <v/>
       </c>
       <c r="Y238" t="n" s="0">
-        <v>33.220000</v>
+        <v/>
       </c>
       <c r="Z238" t="n" s="0">
-        <v>0.071000</v>
+        <v/>
       </c>
       <c r="AA238" t="n" s="0">
-        <v>0.071000</v>
+        <v/>
       </c>
       <c r="AB238" t="n" s="0">
-        <v>0.330000</v>
+        <v/>
       </c>
       <c r="AC238" t="n" s="0">
-        <v>0.018000</v>
+        <v/>
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="0">
-        <v>105</v>
+      <c r="A239" t="n" s="0">
+        <v/>
       </c>
       <c r="B239" t="n" s="0">
-        <v>9.120000</v>
+        <v/>
       </c>
       <c r="C239" t="n" s="0">
-        <v>67.880000</v>
+        <v/>
       </c>
       <c r="D239" t="n" s="0">
-        <v>33.100000</v>
+        <v/>
       </c>
       <c r="E239" t="n" s="0">
-        <v>11.880000</v>
+        <v/>
       </c>
       <c r="F239" t="n" s="0">
-        <v>30.150000</v>
+        <v/>
       </c>
       <c r="G239" t="n" s="0">
-        <v>5.560000</v>
+        <v/>
       </c>
       <c r="H239" t="n" s="0">
-        <v>17.440000</v>
+        <v/>
       </c>
       <c r="I239" t="n" s="0">
-        <v>63.240000</v>
+        <v/>
       </c>
       <c r="J239" t="n" s="0">
-        <v>107.200000</v>
+        <v/>
       </c>
       <c r="K239" t="n" s="0">
-        <v>0.710000</v>
+        <v/>
       </c>
       <c r="L239" t="n" s="0">
-        <v>0.025000</v>
+        <v/>
       </c>
       <c r="M239" t="n" s="0">
-        <v>577.500000</v>
+        <v/>
       </c>
       <c r="N239" t="n" s="0">
-        <v>32.080000</v>
+        <v/>
       </c>
       <c r="O239" t="n" s="0">
         <v/>
       </c>
-      <c r="P239" t="s" s="0">
-        <v>106</v>
+      <c r="P239" t="n" s="0">
+        <v/>
       </c>
       <c r="Q239" t="n" s="0">
-        <v>9.120000</v>
+        <v/>
       </c>
       <c r="R239" t="n" s="0">
-        <v>67.880000</v>
+        <v/>
       </c>
       <c r="S239" t="n" s="0">
-        <v>33.020000</v>
+        <v/>
       </c>
       <c r="T239" t="n" s="0">
-        <v>11.880000</v>
+        <v/>
       </c>
       <c r="U239" t="n" s="0">
-        <v>30.050000</v>
+        <v/>
       </c>
       <c r="V239" t="n" s="0">
-        <v>5.560000</v>
+        <v/>
       </c>
       <c r="W239" t="n" s="0">
-        <v>17.440000</v>
+        <v/>
       </c>
       <c r="X239" t="n" s="0">
-        <v>63.070000</v>
+        <v/>
       </c>
       <c r="Y239" t="n" s="0">
-        <v>107.180000</v>
+        <v/>
       </c>
       <c r="Z239" t="n" s="0">
-        <v>0.710000</v>
+        <v/>
       </c>
       <c r="AA239" t="n" s="0">
-        <v>0.025000</v>
+        <v/>
       </c>
       <c r="AB239" t="n" s="0">
-        <v>577.500000</v>
+        <v/>
       </c>
       <c r="AC239" t="n" s="0">
-        <v>32.080000</v>
+        <v/>
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="0">
-        <v>107</v>
+      <c r="A240" t="n" s="0">
+        <v/>
       </c>
       <c r="B240" t="n" s="0">
-        <v>1.700000</v>
+        <v/>
       </c>
       <c r="C240" t="n" s="0">
-        <v>91.970000</v>
+        <v/>
       </c>
       <c r="D240" t="n" s="0">
-        <v>4.300000</v>
+        <v/>
       </c>
       <c r="E240" t="n" s="0">
-        <v>2.700000</v>
+        <v/>
       </c>
       <c r="F240" t="n" s="0">
-        <v>2.670000</v>
+        <v/>
       </c>
       <c r="G240" t="n" s="0">
-        <v>1.380000</v>
+        <v/>
       </c>
       <c r="H240" t="n" s="0">
-        <v>4.080000</v>
+        <v/>
       </c>
       <c r="I240" t="n" s="0">
-        <v>6.970000</v>
+        <v/>
       </c>
       <c r="J240" t="n" s="0">
-        <v>11.970000</v>
+        <v/>
       </c>
       <c r="K240" t="n" s="0">
-        <v>0.570000</v>
+        <v/>
       </c>
       <c r="L240" t="n" s="0">
-        <v>0.062000</v>
+        <v/>
       </c>
       <c r="M240" t="n" s="0">
-        <v>10.840000</v>
+        <v/>
       </c>
       <c r="N240" t="n" s="0">
-        <v>0.600000</v>
+        <v/>
       </c>
       <c r="O240" t="n" s="0">
         <v/>
       </c>
-      <c r="P240" t="s" s="0">
-        <v>108</v>
+      <c r="P240" t="n" s="0">
+        <v/>
       </c>
       <c r="Q240" t="n" s="0">
-        <v>1.710000</v>
+        <v/>
       </c>
       <c r="R240" t="n" s="0">
-        <v>91.970000</v>
+        <v/>
       </c>
       <c r="S240" t="n" s="0">
-        <v>4.290000</v>
+        <v/>
       </c>
       <c r="T240" t="n" s="0">
-        <v>2.710000</v>
+        <v/>
       </c>
       <c r="U240" t="n" s="0">
-        <v>2.680000</v>
+        <v/>
       </c>
       <c r="V240" t="n" s="0">
-        <v>1.410000</v>
+        <v/>
       </c>
       <c r="W240" t="n" s="0">
-        <v>4.130000</v>
+        <v/>
       </c>
       <c r="X240" t="n" s="0">
-        <v>6.970000</v>
+        <v/>
       </c>
       <c r="Y240" t="n" s="0">
-        <v>12.170000</v>
+        <v/>
       </c>
       <c r="Z240" t="n" s="0">
-        <v>0.570000</v>
+        <v/>
       </c>
       <c r="AA240" t="n" s="0">
-        <v>0.062000</v>
+        <v/>
       </c>
       <c r="AB240" t="n" s="0">
-        <v>10.840000</v>
+        <v/>
       </c>
       <c r="AC240" t="n" s="0">
-        <v>0.600000</v>
+        <v/>
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="0">
-        <v>109</v>
+      <c r="A241" t="n" s="0">
+        <v/>
       </c>
       <c r="B241" t="n" s="0">
-        <v>4.770000</v>
+        <v/>
       </c>
       <c r="C241" t="n" s="0">
-        <v>80.480000</v>
+        <v/>
       </c>
       <c r="D241" t="n" s="0">
-        <v>9.570000</v>
+        <v/>
       </c>
       <c r="E241" t="n" s="0">
-        <v>4.790000</v>
+        <v/>
       </c>
       <c r="F241" t="n" s="0">
-        <v>10.430000</v>
+        <v/>
       </c>
       <c r="G241" t="n" s="0">
-        <v>3.260000</v>
+        <v/>
       </c>
       <c r="H241" t="n" s="0">
-        <v>8.040000</v>
+        <v/>
       </c>
       <c r="I241" t="n" s="0">
-        <v>20.000000</v>
+        <v/>
       </c>
       <c r="J241" t="n" s="0">
-        <v>35.300000</v>
+        <v/>
       </c>
       <c r="K241" t="n" s="0">
-        <v>2.390000</v>
+        <v/>
       </c>
       <c r="L241" t="n" s="0">
-        <v>0.034000</v>
+        <v/>
       </c>
       <c r="M241" t="n" s="0">
-        <v>393.870000</v>
+        <v/>
       </c>
       <c r="N241" t="n" s="0">
-        <v>21.880000</v>
+        <v/>
       </c>
       <c r="O241" t="n" s="0">
         <v/>
       </c>
-      <c r="P241" t="s" s="0">
-        <v>110</v>
+      <c r="P241" t="n" s="0">
+        <v/>
       </c>
       <c r="Q241" t="n" s="0">
-        <v>4.740000</v>
+        <v/>
       </c>
       <c r="R241" t="n" s="0">
-        <v>80.490000</v>
+        <v/>
       </c>
       <c r="S241" t="n" s="0">
-        <v>9.480000</v>
+        <v/>
       </c>
       <c r="T241" t="n" s="0">
-        <v>4.770000</v>
+        <v/>
       </c>
       <c r="U241" t="n" s="0">
-        <v>10.280000</v>
+        <v/>
       </c>
       <c r="V241" t="n" s="0">
-        <v>3.260000</v>
+        <v/>
       </c>
       <c r="W241" t="n" s="0">
-        <v>8.020000</v>
+        <v/>
       </c>
       <c r="X241" t="n" s="0">
-        <v>19.760000</v>
+        <v/>
       </c>
       <c r="Y241" t="n" s="0">
-        <v>35.060000</v>
+        <v/>
       </c>
       <c r="Z241" t="n" s="0">
-        <v>2.390000</v>
+        <v/>
       </c>
       <c r="AA241" t="n" s="0">
-        <v>0.034000</v>
+        <v/>
       </c>
       <c r="AB241" t="n" s="0">
-        <v>393.870000</v>
+        <v/>
       </c>
       <c r="AC241" t="n" s="0">
-        <v>21.880000</v>
+        <v/>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="0">
-        <v>111</v>
+      <c r="A242" t="n" s="0">
+        <v/>
       </c>
       <c r="B242" t="n" s="0">
-        <v>4.600000</v>
+        <v/>
       </c>
       <c r="C242" t="n" s="0">
-        <v>80.410000</v>
+        <v/>
       </c>
       <c r="D242" t="n" s="0">
-        <v>9.330000</v>
+        <v/>
       </c>
       <c r="E242" t="n" s="0">
-        <v>4.810000</v>
+        <v/>
       </c>
       <c r="F242" t="n" s="0">
-        <v>9.920000</v>
+        <v/>
       </c>
       <c r="G242" t="n" s="0">
-        <v>3.220000</v>
+        <v/>
       </c>
       <c r="H242" t="n" s="0">
-        <v>8.030000</v>
+        <v/>
       </c>
       <c r="I242" t="n" s="0">
-        <v>19.250000</v>
+        <v/>
       </c>
       <c r="J242" t="n" s="0">
-        <v>34.720000</v>
+        <v/>
       </c>
       <c r="K242" t="n" s="0">
-        <v>2.640000</v>
+        <v/>
       </c>
       <c r="L242" t="n" s="0">
-        <v>0.034000</v>
+        <v/>
       </c>
       <c r="M242" t="n" s="0">
-        <v>458.350000</v>
+        <v/>
       </c>
       <c r="N242" t="n" s="0">
-        <v>25.460000</v>
+        <v/>
       </c>
       <c r="O242" t="n" s="0">
         <v/>
       </c>
-      <c r="P242" t="s" s="0">
-        <v>112</v>
+      <c r="P242" t="n" s="0">
+        <v/>
       </c>
       <c r="Q242" t="n" s="0">
-        <v>4.600000</v>
+        <v/>
       </c>
       <c r="R242" t="n" s="0">
-        <v>80.410000</v>
+        <v/>
       </c>
       <c r="S242" t="n" s="0">
-        <v>9.330000</v>
+        <v/>
       </c>
       <c r="T242" t="n" s="0">
-        <v>4.810000</v>
+        <v/>
       </c>
       <c r="U242" t="n" s="0">
-        <v>9.920000</v>
+        <v/>
       </c>
       <c r="V242" t="n" s="0">
-        <v>3.220000</v>
+        <v/>
       </c>
       <c r="W242" t="n" s="0">
-        <v>8.030000</v>
+        <v/>
       </c>
       <c r="X242" t="n" s="0">
-        <v>19.250000</v>
+        <v/>
       </c>
       <c r="Y242" t="n" s="0">
-        <v>34.720000</v>
+        <v/>
       </c>
       <c r="Z242" t="n" s="0">
-        <v>2.640000</v>
+        <v/>
       </c>
       <c r="AA242" t="n" s="0">
-        <v>0.034000</v>
+        <v/>
       </c>
       <c r="AB242" t="n" s="0">
-        <v>458.350000</v>
+        <v/>
       </c>
       <c r="AC242" t="n" s="0">
-        <v>25.460000</v>
+        <v/>
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="0">
-        <v>113</v>
+      <c r="A243" t="n" s="0">
+        <v/>
       </c>
       <c r="B243" t="n" s="0">
-        <v>5.130000</v>
+        <v/>
       </c>
       <c r="C243" t="n" s="0">
-        <v>73.420000</v>
+        <v/>
       </c>
       <c r="D243" t="n" s="0">
-        <v>17.920000</v>
+        <v/>
       </c>
       <c r="E243" t="n" s="0">
-        <v>6.770000</v>
+        <v/>
       </c>
       <c r="F243" t="n" s="0">
-        <v>11.960000</v>
+        <v/>
       </c>
       <c r="G243" t="n" s="0">
-        <v>4.790000</v>
+        <v/>
       </c>
       <c r="H243" t="n" s="0">
-        <v>11.570000</v>
+        <v/>
       </c>
       <c r="I243" t="n" s="0">
-        <v>29.890000</v>
+        <v/>
       </c>
       <c r="J243" t="n" s="0">
-        <v>58.170000</v>
+        <v/>
       </c>
       <c r="K243" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="L243" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="M243" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="N243" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="O243" t="n" s="0">
         <v/>
       </c>
-      <c r="P243" t="s" s="0">
-        <v>114</v>
+      <c r="P243" t="n" s="0">
+        <v/>
       </c>
       <c r="Q243" t="n" s="0">
-        <v>5.060000</v>
+        <v/>
       </c>
       <c r="R243" t="n" s="0">
-        <v>73.430000</v>
+        <v/>
       </c>
       <c r="S243" t="n" s="0">
-        <v>17.750000</v>
+        <v/>
       </c>
       <c r="T243" t="n" s="0">
-        <v>6.770000</v>
+        <v/>
       </c>
       <c r="U243" t="n" s="0">
-        <v>11.680000</v>
+        <v/>
       </c>
       <c r="V243" t="n" s="0">
-        <v>4.790000</v>
+        <v/>
       </c>
       <c r="W243" t="n" s="0">
-        <v>11.570000</v>
+        <v/>
       </c>
       <c r="X243" t="n" s="0">
-        <v>29.430000</v>
+        <v/>
       </c>
       <c r="Y243" t="n" s="0">
-        <v>58.070000</v>
+        <v/>
       </c>
       <c r="Z243" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="AA243" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="AB243" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="AC243" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="0">
-        <v>115</v>
+      <c r="A244" t="n" s="0">
+        <v/>
       </c>
       <c r="B244" t="n" s="0">
-        <v>4.450000</v>
+        <v/>
       </c>
       <c r="C244" t="n" s="0">
-        <v>80.000000</v>
+        <v/>
       </c>
       <c r="D244" t="n" s="0">
-        <v>26.350000</v>
+        <v/>
       </c>
       <c r="E244" t="n" s="0">
-        <v>7.600000</v>
+        <v/>
       </c>
       <c r="F244" t="n" s="0">
-        <v>17.450000</v>
+        <v/>
       </c>
       <c r="G244" t="n" s="0">
-        <v>3.050000</v>
+        <v/>
       </c>
       <c r="H244" t="n" s="0">
-        <v>10.650000</v>
+        <v/>
       </c>
       <c r="I244" t="n" s="0">
-        <v>43.800000</v>
+        <v/>
       </c>
       <c r="J244" t="n" s="0">
-        <v>63.760000</v>
+        <v/>
       </c>
       <c r="K244" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="L244" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="M244" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="N244" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="O244" t="n" s="0">
         <v/>
       </c>
-      <c r="P244" t="s" s="0">
-        <v>116</v>
+      <c r="P244" t="n" s="0">
+        <v/>
       </c>
       <c r="Q244" t="n" s="0">
-        <v>4.380000</v>
+        <v/>
       </c>
       <c r="R244" t="n" s="0">
-        <v>79.290000</v>
+        <v/>
       </c>
       <c r="S244" t="n" s="0">
-        <v>27.290000</v>
+        <v/>
       </c>
       <c r="T244" t="n" s="0">
-        <v>7.810000</v>
+        <v/>
       </c>
       <c r="U244" t="n" s="0">
-        <v>17.570000</v>
+        <v/>
       </c>
       <c r="V244" t="n" s="0">
-        <v>3.140000</v>
+        <v/>
       </c>
       <c r="W244" t="n" s="0">
-        <v>10.950000</v>
+        <v/>
       </c>
       <c r="X244" t="n" s="0">
-        <v>44.860000</v>
+        <v/>
       </c>
       <c r="Y244" t="n" s="0">
-        <v>65.400000</v>
+        <v/>
       </c>
       <c r="Z244" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="AA244" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="AB244" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="AC244" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="0">
-        <v>117</v>
+      <c r="A245" t="n" s="0">
+        <v/>
       </c>
       <c r="B245" t="n" s="0">
-        <v>4.710000</v>
+        <v/>
       </c>
       <c r="C245" t="n" s="0">
-        <v>73.000000</v>
+        <v/>
       </c>
       <c r="D245" t="n" s="0">
-        <v>20.000000</v>
+        <v/>
       </c>
       <c r="E245" t="n" s="0">
-        <v>7.570000</v>
+        <v/>
       </c>
       <c r="F245" t="n" s="0">
-        <v>17.140000</v>
+        <v/>
       </c>
       <c r="G245" t="n" s="0">
-        <v>5.430000</v>
+        <v/>
       </c>
       <c r="H245" t="n" s="0">
-        <v>13.000000</v>
+        <v/>
       </c>
       <c r="I245" t="n" s="0">
-        <v>37.140000</v>
+        <v/>
       </c>
       <c r="J245" t="n" s="0">
-        <v>70.010000</v>
+        <v/>
       </c>
       <c r="K245" t="n" s="0">
-        <v>1.290000</v>
+        <v/>
       </c>
       <c r="L245" t="n" s="0">
-        <v>0.071000</v>
+        <v/>
       </c>
       <c r="M245" t="n" s="0">
-        <v>32.860000</v>
+        <v/>
       </c>
       <c r="N245" t="n" s="0">
-        <v>1.830000</v>
+        <v/>
       </c>
       <c r="O245" t="n" s="0">
         <v/>
       </c>
-      <c r="P245" t="s" s="0">
-        <v>118</v>
+      <c r="P245" t="n" s="0">
+        <v/>
       </c>
       <c r="Q245" t="n" s="0">
-        <v>4.430000</v>
+        <v/>
       </c>
       <c r="R245" t="n" s="0">
-        <v>73.140000</v>
+        <v/>
       </c>
       <c r="S245" t="n" s="0">
-        <v>19.430000</v>
+        <v/>
       </c>
       <c r="T245" t="n" s="0">
-        <v>7.570000</v>
+        <v/>
       </c>
       <c r="U245" t="n" s="0">
-        <v>15.710000</v>
+        <v/>
       </c>
       <c r="V245" t="n" s="0">
-        <v>5.430000</v>
+        <v/>
       </c>
       <c r="W245" t="n" s="0">
-        <v>13.000000</v>
+        <v/>
       </c>
       <c r="X245" t="n" s="0">
-        <v>35.140000</v>
+        <v/>
       </c>
       <c r="Y245" t="n" s="0">
-        <v>69.320000</v>
+        <v/>
       </c>
       <c r="Z245" t="n" s="0">
-        <v>1.290000</v>
+        <v/>
       </c>
       <c r="AA245" t="n" s="0">
-        <v>0.071000</v>
+        <v/>
       </c>
       <c r="AB245" t="n" s="0">
-        <v>32.860000</v>
+        <v/>
       </c>
       <c r="AC245" t="n" s="0">
-        <v>1.830000</v>
+        <v/>
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="0">
-        <v>119</v>
+      <c r="A246" t="n" s="0">
+        <v/>
       </c>
       <c r="B246" t="n" s="0">
-        <v>2.140000</v>
+        <v/>
       </c>
       <c r="C246" t="n" s="0">
-        <v>89.860000</v>
+        <v/>
       </c>
       <c r="D246" t="n" s="0">
-        <v>13.570000</v>
+        <v/>
       </c>
       <c r="E246" t="n" s="0">
-        <v>5.290000</v>
+        <v/>
       </c>
       <c r="F246" t="n" s="0">
-        <v>5.710000</v>
+        <v/>
       </c>
       <c r="G246" t="n" s="0">
-        <v>2.000000</v>
+        <v/>
       </c>
       <c r="H246" t="n" s="0">
-        <v>7.290000</v>
+        <v/>
       </c>
       <c r="I246" t="n" s="0">
-        <v>19.290000</v>
+        <v/>
       </c>
       <c r="J246" t="n" s="0">
-        <v>35.910000</v>
+        <v/>
       </c>
       <c r="K246" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="L246" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="M246" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="N246" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="O246" t="n" s="0">
         <v/>
       </c>
-      <c r="P246" t="s" s="0">
-        <v>120</v>
+      <c r="P246" t="n" s="0">
+        <v/>
       </c>
       <c r="Q246" t="n" s="0">
-        <v>3.290000</v>
+        <v/>
       </c>
       <c r="R246" t="n" s="0">
-        <v>88.860000</v>
+        <v/>
       </c>
       <c r="S246" t="n" s="0">
-        <v>21.140000</v>
+        <v/>
       </c>
       <c r="T246" t="n" s="0">
-        <v>6.710000</v>
+        <v/>
       </c>
       <c r="U246" t="n" s="0">
-        <v>12.140000</v>
+        <v/>
       </c>
       <c r="V246" t="n" s="0">
-        <v>3.430000</v>
+        <v/>
       </c>
       <c r="W246" t="n" s="0">
-        <v>10.140000</v>
+        <v/>
       </c>
       <c r="X246" t="n" s="0">
-        <v>33.290000</v>
+        <v/>
       </c>
       <c r="Y246" t="n" s="0">
-        <v>61.990000</v>
+        <v/>
       </c>
       <c r="Z246" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="AA246" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="AB246" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
       <c r="AC246" t="n" s="0">
-        <v>0.000000</v>
+        <v/>
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s" s="0">
-        <v>121</v>
+      <c r="A247" t="n" s="0">
+        <v/>
       </c>
       <c r="B247" t="n" s="0">
-        <v>2.950000</v>
+        <v/>
       </c>
       <c r="C247" t="n" s="0">
-        <v>85.100000</v>
+        <v/>
       </c>
       <c r="D247" t="n" s="0">
-        <v>13.750000</v>
+        <v/>
       </c>
       <c r="E247" t="n" s="0">
-        <v>5.550000</v>
+        <v/>
       </c>
       <c r="F247" t="n" s="0">
-        <v>12.100000</v>
+        <v/>
       </c>
       <c r="G247" t="n" s="0">
-        <v>3.250000</v>
+        <v/>
       </c>
       <c r="H247" t="n" s="0">
-        <v>8.800000</v>
+        <v/>
       </c>
       <c r="I247" t="n" s="0">
-        <v>25.850000</v>
+        <v/>
       </c>
       <c r="J247" t="n" s="0">
-        <v>46.450000</v>
+        <v/>
       </c>
       <c r="K247" t="n" s="0">
-        <v>0.450000</v>
+        <v/>
       </c>
       <c r="L247" t="n" s="0">
-        <v>0.022000</v>
+        <v/>
       </c>
       <c r="M247" t="n" s="0">
-        <v>14.920000</v>
+        <v/>
       </c>
       <c r="N247" t="n" s="0">
-        <v>0.830000</v>
+        <v/>
       </c>
       <c r="O247" t="n" s="0">
         <v/>
       </c>
-      <c r="P247" t="s" s="0">
-        <v>122</v>
+      <c r="P247" t="n" s="0">
+        <v/>
       </c>
       <c r="Q247" t="n" s="0">
-        <v>2.900000</v>
+        <v/>
       </c>
       <c r="R247" t="n" s="0">
-        <v>85.150000</v>
+        <v/>
       </c>
       <c r="S247" t="n" s="0">
-        <v>13.650000</v>
+        <v/>
       </c>
       <c r="T247" t="n" s="0">
-        <v>5.550000</v>
+        <v/>
       </c>
       <c r="U247" t="n" s="0">
-        <v>11.850000</v>
+        <v/>
       </c>
       <c r="V247" t="n" s="0">
-        <v>3.150000</v>
+        <v/>
       </c>
       <c r="W247" t="n" s="0">
-        <v>8.700000</v>
+        <v/>
       </c>
       <c r="X247" t="n" s="0">
-        <v>25.500000</v>
+        <v/>
       </c>
       <c r="Y247" t="n" s="0">
-        <v>45.640000</v>
+        <v/>
       </c>
       <c r="Z247" t="n" s="0">
-        <v>0.450000</v>
+        <v/>
       </c>
       <c r="AA247" t="n" s="0">
-        <v>0.022000</v>
+        <v/>
       </c>
       <c r="AB247" t="n" s="0">
-        <v>14.920000</v>
+        <v/>
       </c>
       <c r="AC247" t="n" s="0">
-        <v>0.830000</v>
+        <v/>
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="0">
-        <v>123</v>
+      <c r="A248" t="n" s="0">
+        <v/>
       </c>
       <c r="B248" t="n" s="0">
-        <v>2.060000</v>
+        <v/>
       </c>
       <c r="C248" t="n" s="0">
-        <v>80.300000</v>
+        <v/>
       </c>
       <c r="D248" t="n" s="0">
-        <v>10.130000</v>
+        <v/>
       </c>
       <c r="E248" t="n" s="0">
-        <v>3.750000</v>
+        <v/>
       </c>
       <c r="F248" t="n" s="0">
-        <v>7.160000</v>
+        <v/>
       </c>
       <c r="G248" t="n" s="0">
-        <v>3.040000</v>
+        <v/>
       </c>
       <c r="H248" t="n" s="0">
-        <v>6.800000</v>
+        <v/>
       </c>
       <c r="I248" t="n" s="0">
-        <v>17.290000</v>
+        <v/>
       </c>
       <c r="J248" t="n" s="0">
-        <v>29.440000</v>
+        <v/>
       </c>
       <c r="K248" t="n" s="0">
-        <v>0.014000</v>
+        <v/>
       </c>
       <c r="L248" t="n" s="0">
-        <v>0.014000</v>
+        <v/>
       </c>
       <c r="M248" t="n" s="0">
-        <v>0.087000</v>
+        <v/>
       </c>
       <c r="N248" t="n" s="0">
-        <v>0.004800</v>
+        <v/>
       </c>
       <c r="O248" t="n" s="0">
         <v/>
       </c>
-      <c r="P248" t="s" s="0">
-        <v>124</v>
+      <c r="P248" t="n" s="0">
+        <v/>
       </c>
       <c r="Q248" t="n" s="0">
-        <v>2.060000</v>
+        <v/>
       </c>
       <c r="R248" t="n" s="0">
-        <v>80.300000</v>
+        <v/>
       </c>
       <c r="S248" t="n" s="0">
-        <v>10.170000</v>
+        <v/>
       </c>
       <c r="T248" t="n" s="0">
-        <v>3.770000</v>
+        <v/>
       </c>
       <c r="U248" t="n" s="0">
-        <v>7.130000</v>
+        <v/>
       </c>
       <c r="V248" t="n" s="0">
-        <v>3.030000</v>
+        <v/>
       </c>
       <c r="W248" t="n" s="0">
-        <v>6.800000</v>
+        <v/>
       </c>
       <c r="X248" t="n" s="0">
-        <v>17.300000</v>
+        <v/>
       </c>
       <c r="Y248" t="n" s="0">
-        <v>29.440000</v>
+        <v/>
       </c>
       <c r="Z248" t="n" s="0">
-        <v>0.014000</v>
+        <v/>
       </c>
       <c r="AA248" t="n" s="0">
-        <v>0.014000</v>
+        <v/>
       </c>
       <c r="AB248" t="n" s="0">
-        <v>0.087000</v>
+        <v/>
       </c>
       <c r="AC248" t="n" s="0">
-        <v>0.004800</v>
+        <v/>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="0">
-        <v>125</v>
+      <c r="A249" t="n" s="0">
+        <v/>
       </c>
       <c r="B249" t="n" s="0">
-        <v>5.000000</v>
+        <v/>
       </c>
       <c r="C249" t="n" s="0">
-        <v>78.860000</v>
+        <v/>
       </c>
       <c r="D249" t="n" s="0">
-        <v>16.000000</v>
+        <v/>
       </c>
       <c r="E249" t="n" s="0">
-        <v>6.290000</v>
+        <v/>
       </c>
       <c r="F249" t="n" s="0">
-        <v>11.570000</v>
+        <v/>
       </c>
       <c r="G249" t="n" s="0">
-        <v>3.570000</v>
+        <v/>
       </c>
       <c r="H249" t="n" s="0">
-        <v>9.860000</v>
+        <v/>
       </c>
       <c r="I249" t="n" s="0">
-        <v>27.570000</v>
+        <v/>
       </c>
       <c r="J249" t="n" s="0">
-        <v>48.540000</v>
+        <v/>
       </c>
       <c r="K249" t="n" s="0">
-        <v>0.430000</v>
+        <v/>
       </c>
       <c r="L249" t="n" s="0">
-        <v>0.210000</v>
+        <v/>
       </c>
       <c r="M249" t="n" s="0">
-        <v>10.380000</v>
+        <v/>
       </c>
       <c r="N249" t="n" s="0">
-        <v>0.580000</v>
+        <v/>
       </c>
       <c r="O249" t="n" s="0">
         <v/>
       </c>
-      <c r="P249" t="s" s="0">
-        <v>126</v>
+      <c r="P249" t="n" s="0">
+        <v/>
       </c>
       <c r="Q249" t="n" s="0">
-        <v>5.140000</v>
+        <v/>
       </c>
       <c r="R249" t="n" s="0">
-        <v>78.710000</v>
+        <v/>
       </c>
       <c r="S249" t="n" s="0">
-        <v>17.430000</v>
+        <v/>
       </c>
       <c r="T249" t="n" s="0">
-        <v>6.290000</v>
+        <v/>
       </c>
       <c r="U249" t="n" s="0">
-        <v>13.000000</v>
+        <v/>
       </c>
       <c r="V249" t="n" s="0">
-        <v>3.570000</v>
+        <v/>
       </c>
       <c r="W249" t="n" s="0">
-        <v>9.860000</v>
+        <v/>
       </c>
       <c r="X249" t="n" s="0">
-        <v>30.430000</v>
+        <v/>
       </c>
       <c r="Y249" t="n" s="0">
-        <v>49.370000</v>
+        <v/>
       </c>
       <c r="Z249" t="n" s="0">
-        <v>0.430000</v>
+        <v/>
       </c>
       <c r="AA249" t="n" s="0">
-        <v>0.210000</v>
+        <v/>
       </c>
       <c r="AB249" t="n" s="0">
-        <v>10.380000</v>
+        <v/>
       </c>
       <c r="AC249" t="n" s="0">
-        <v>0.580000</v>
+        <v/>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s" s="0">
-        <v>127</v>
+      <c r="A250" t="n" s="0">
+        <v/>
       </c>
       <c r="B250" t="n" s="0">
-        <v>6.000000</v>
+        <v/>
       </c>
       <c r="C250" t="n" s="0">
-        <v>65.240000</v>
+        <v/>
       </c>
       <c r="D250" t="n" s="0">
-        <v>51.360000</v>
+        <v/>
       </c>
       <c r="E250" t="n" s="0">
-        <v>11.980000</v>
+        <v/>
       </c>
       <c r="F250" t="n" s="0">
-        <v>44.050000</v>
+        <v/>
       </c>
       <c r="G250" t="n" s="0">
-        <v>8.380000</v>
+        <v/>
       </c>
       <c r="H250" t="n" s="0">
-        <v>20.360000</v>
+        <v/>
       </c>
       <c r="I250" t="n" s="0">
-        <v>95.400000</v>
+        <v/>
       </c>
       <c r="J250" t="n" s="0">
-        <v>133.090000</v>
+        <v/>
       </c>
       <c r="K250" t="n" s="0">
-        <v>0.290000</v>
+        <v/>
       </c>
       <c r="L250" t="n" s="0">
-        <v>0.022000</v>
+        <v/>
       </c>
       <c r="M250" t="n" s="0">
-        <v>3.790000</v>
+        <v/>
       </c>
       <c r="N250" t="n" s="0">
-        <v>0.210000</v>
+        <v/>
       </c>
       <c r="O250" t="n" s="0">
         <v/>
       </c>
-      <c r="P250" t="s" s="0">
-        <v>128</v>
+      <c r="P250" t="n" s="0">
+        <v/>
       </c>
       <c r="Q250" t="n" s="0">
-        <v>6.020000</v>
+        <v/>
       </c>
       <c r="R250" t="n" s="0">
-        <v>65.190000</v>
+        <v/>
       </c>
       <c r="S250" t="n" s="0">
-        <v>51.400000</v>
+        <v/>
       </c>
       <c r="T250" t="n" s="0">
-        <v>11.980000</v>
+        <v/>
       </c>
       <c r="U250" t="n" s="0">
-        <v>44.070000</v>
+        <v/>
       </c>
       <c r="V250" t="n" s="0">
-        <v>8.380000</v>
+        <v/>
       </c>
       <c r="W250" t="n" s="0">
-        <v>20.360000</v>
+        <v/>
       </c>
       <c r="X250" t="n" s="0">
-        <v>95.480000</v>
+        <v/>
       </c>
       <c r="Y250" t="n" s="0">
-        <v>133.130000</v>
+        <v/>
       </c>
       <c r="Z250" t="n" s="0">
-        <v>0.290000</v>
+        <v/>
       </c>
       <c r="AA250" t="n" s="0">
-        <v>0.022000</v>
+        <v/>
       </c>
       <c r="AB250" t="n" s="0">
-        <v>3.790000</v>
+        <v/>
       </c>
       <c r="AC250" t="n" s="0">
-        <v>0.210000</v>
+        <v/>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="0">
-        <v>129</v>
+      <c r="A251" t="n" s="0">
+        <v/>
       </c>
       <c r="B251" t="n" s="0">
-        <v>6.000000</v>
+        <v/>
       </c>
       <c r="C251" t="n" s="0">
-        <v>65.240000</v>
+        <v/>
       </c>
       <c r="D251" t="n" s="0">
-        <v>51.360000</v>
+        <v/>
       </c>
       <c r="E251" t="n" s="0">
-        <v>11.980000</v>
+        <v/>
       </c>
       <c r="F251" t="n" s="0">
-        <v>44.050000</v>
+        <v/>
       </c>
       <c r="G251" t="n" s="0">
-        <v>8.380000</v>
+        <v/>
       </c>
       <c r="H251" t="n" s="0">
-        <v>20.360000</v>
+        <v/>
       </c>
       <c r="I251" t="n" s="0">
-        <v>95.400000</v>
+        <v/>
       </c>
       <c r="J251" t="n" s="0">
-        <v>133.090000</v>
+        <v/>
       </c>
       <c r="K251" t="n" s="0">
-        <v>0.290000</v>
+        <v/>
       </c>
       <c r="L251" t="n" s="0">
-        <v>0.022000</v>
+        <v/>
       </c>
       <c r="M251" t="n" s="0">
-        <v>3.790000</v>
+        <v/>
       </c>
       <c r="N251" t="n" s="0">
-        <v>0.210000</v>
+        <v/>
       </c>
       <c r="O251" t="n" s="0">
         <v/>
       </c>
-      <c r="P251" t="s" s="0">
-        <v>130</v>
+      <c r="P251" t="n" s="0">
+        <v/>
       </c>
       <c r="Q251" t="n" s="0">
-        <v>5.980000</v>
+        <v/>
       </c>
       <c r="R251" t="n" s="0">
-        <v>65.260000</v>
+        <v/>
       </c>
       <c r="S251" t="n" s="0">
-        <v>51.190000</v>
+        <v/>
       </c>
       <c r="T251" t="n" s="0">
-        <v>12.000000</v>
+        <v/>
       </c>
       <c r="U251" t="n" s="0">
-        <v>43.860000</v>
+        <v/>
       </c>
       <c r="V251" t="n" s="0">
-        <v>8.330000</v>
+        <v/>
       </c>
       <c r="W251" t="n" s="0">
-        <v>20.330000</v>
+        <v/>
       </c>
       <c r="X251" t="n" s="0">
-        <v>95.050000</v>
+        <v/>
       </c>
       <c r="Y251" t="n" s="0">
-        <v>132.860000</v>
+        <v/>
       </c>
       <c r="Z251" t="n" s="0">
-        <v>0.290000</v>
+        <v/>
       </c>
       <c r="AA251" t="n" s="0">
-        <v>0.022000</v>
+        <v/>
       </c>
       <c r="AB251" t="n" s="0">
-        <v>3.790000</v>
+        <v/>
       </c>
       <c r="AC251" t="n" s="0">
-        <v>0.210000</v>
+        <v/>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="0">
-        <v>131</v>
+      <c r="A252" t="n" s="0">
+        <v/>
       </c>
       <c r="B252" t="n" s="0">
-        <v>3.000000</v>
+        <v/>
       </c>
       <c r="C252" t="n" s="0">
-        <v>72.250000</v>
+        <v/>
       </c>
       <c r="D252" t="n" s="0">
-        <v>19.000000</v>
+        <v/>
       </c>
       <c r="E252" t="n" s="0">
-        <v>8.750000</v>
+        <v/>
       </c>
       <c r="F252" t="n" s="0">
-        <v>11.000000</v>
+        <v/>
       </c>
       <c r="G252" t="n" s="0">
-        <v>5.000000</v>
+        <v/>
       </c>
       <c r="H252" t="n" s="0">
-        <v>13.750000</v>
+        <v/>
       </c>
       <c r="I252" t="n" s="0">
-        <v>30.000000</v>
+        <v/>
       </c>
       <c r="J252" t="n" s="0">
-        <v>72.030000</v>
+        <v/>
       </c>
       <c r="K252" t="n" s="0">
-        <v>0.500000</v>
+        <v/>
       </c>
       <c r="L252" t="n" s="0">
-        <v>0.500000</v>
+        <v/>
       </c>
       <c r="M252" t="n" s="0">
-        <v>5.710000</v>
+        <v/>
       </c>
       <c r="N252" t="n" s="0">
-        <v>0.320000</v>
+        <v/>
       </c>
       <c r="O252" t="n" s="0">
         <v/>
       </c>
-      <c r="P252" t="s" s="0">
-        <v>132</v>
+      <c r="P252" t="n" s="0">
+        <v/>
       </c>
       <c r="Q252" t="n" s="0">
-        <v>2.500000</v>
+        <v/>
       </c>
       <c r="R252" t="n" s="0">
-        <v>73.750000</v>
+        <v/>
       </c>
       <c r="S252" t="n" s="0">
-        <v>14.500000</v>
+        <v/>
       </c>
       <c r="T252" t="n" s="0">
-        <v>7.750000</v>
+        <v/>
       </c>
       <c r="U252" t="n" s="0">
-        <v>8.500000</v>
+        <v/>
       </c>
       <c r="V252" t="n" s="0">
-        <v>4.250000</v>
+        <v/>
       </c>
       <c r="W252" t="n" s="0">
-        <v>12.000000</v>
+        <v/>
       </c>
       <c r="X252" t="n" s="0">
-        <v>23.000000</v>
+        <v/>
       </c>
       <c r="Y252" t="n" s="0">
-        <v>57.840000</v>
+        <v/>
       </c>
       <c r="Z252" t="n" s="0">
-        <v>0.500000</v>
+        <v/>
       </c>
       <c r="AA252" t="n" s="0">
-        <v>0.500000</v>
+        <v/>
       </c>
       <c r="AB252" t="n" s="0">
-        <v>5.710000</v>
+        <v/>
       </c>
       <c r="AC252" t="n" s="0">
-        <v>0.320000</v>
+        <v/>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="0">
-        <v>133</v>
+      <c r="A253" t="n" s="0">
+        <v/>
       </c>
       <c r="B253" t="n" s="0">
-        <v>2.570000</v>
+        <v/>
       </c>
       <c r="C253" t="n" s="0">
-        <v>82.860000</v>
+        <v/>
       </c>
       <c r="D253" t="n" s="0">
-        <v>14.860000</v>
+        <v/>
       </c>
       <c r="E253" t="n" s="0">
-        <v>6.430000</v>
+        <v/>
       </c>
       <c r="F253" t="n" s="0">
-        <v>7.710000</v>
+        <v/>
       </c>
       <c r="G253" t="n" s="0">
-        <v>3.570000</v>
+        <v/>
       </c>
       <c r="H253" t="n" s="0">
-        <v>10.000000</v>
+        <v/>
       </c>
       <c r="I253" t="n" s="0">
-        <v>22.570000</v>
+        <v/>
       </c>
       <c r="J253" t="n" s="0">
-        <v>50.990000</v>
+        <v/>
       </c>
       <c r="K253" t="n" s="0">
-        <v>0.140000</v>
+        <v/>
       </c>
       <c r="L253" t="n" s="0">
-        <v>0.140000</v>
+        <v/>
       </c>
       <c r="M253" t="n" s="0">
-        <v>2.580000</v>
+        <v/>
       </c>
       <c r="N253" t="n" s="0">
-        <v>0.140000</v>
+        <v/>
       </c>
       <c r="O253" t="n" s="0">
         <v/>
       </c>
-      <c r="P253" t="s" s="0">
-        <v>134</v>
+      <c r="P253" t="n" s="0">
+        <v/>
       </c>
       <c r="Q253" t="n" s="0">
-        <v>2.570000</v>
+        <v/>
       </c>
       <c r="R253" t="n" s="0">
-        <v>83.000000</v>
+        <v/>
       </c>
       <c r="S253" t="n" s="0">
-        <v>13.570000</v>
+        <v/>
       </c>
       <c r="T253" t="n" s="0">
-        <v>6.000000</v>
+        <v/>
       </c>
       <c r="U253" t="n" s="0">
-        <v>7.570000</v>
+        <v/>
       </c>
       <c r="V253" t="n" s="0">
-        <v>3.570000</v>
+        <v/>
       </c>
       <c r="W253" t="n" s="0">
-        <v>9.570000</v>
+        <v/>
       </c>
       <c r="X253" t="n" s="0">
-        <v>21.140000</v>
+        <v/>
       </c>
       <c r="Y253" t="n" s="0">
-        <v>47.380000</v>
+        <v/>
       </c>
       <c r="Z253" t="n" s="0">
-        <v>0.140000</v>
+        <v/>
       </c>
       <c r="AA253" t="n" s="0">
-        <v>0.140000</v>
+        <v/>
       </c>
       <c r="AB253" t="n" s="0">
-        <v>2.580000</v>
+        <v/>
       </c>
       <c r="AC253" t="n" s="0">
-        <v>0.140000</v>
+        <v/>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="0">
-        <v>135</v>
+      <c r="A254" t="n" s="0">
+        <v/>
       </c>
       <c r="B254" t="n" s="0">
-        <v>1.600000</v>
+        <v/>
       </c>
       <c r="C254" t="n" s="0">
-        <v>85.700000</v>
+        <v/>
       </c>
       <c r="D254" t="n" s="0">
-        <v>5.400000</v>
+        <v/>
       </c>
       <c r="E254" t="n" s="0">
-        <v>3.800000</v>
+        <v/>
       </c>
       <c r="F254" t="n" s="0">
-        <v>3.200000</v>
+        <v/>
       </c>
       <c r="G254" t="n" s="0">
-        <v>2.300000</v>
+        <v/>
       </c>
       <c r="H254" t="n" s="0">
-        <v>6.100000</v>
+        <v/>
       </c>
       <c r="I254" t="n" s="0">
-        <v>8.600000</v>
+        <v/>
       </c>
       <c r="J254" t="n" s="0">
-        <v>20.570000</v>
+        <v/>
       </c>
       <c r="K254" t="n" s="0">
-        <v>0.600000</v>
+        <v/>
       </c>
       <c r="L254" t="n" s="0">
-        <v>0.220000</v>
+        <v/>
       </c>
       <c r="M254" t="n" s="0">
-        <v>11.170000</v>
+        <v/>
       </c>
       <c r="N254" t="n" s="0">
-        <v>0.620000</v>
+        <v/>
       </c>
       <c r="O254" t="n" s="0">
         <v/>
       </c>
-      <c r="P254" t="s" s="0">
-        <v>136</v>
+      <c r="P254" t="n" s="0">
+        <v/>
       </c>
       <c r="Q254" t="n" s="0">
-        <v>1.600000</v>
+        <v/>
       </c>
       <c r="R254" t="n" s="0">
-        <v>85.500000</v>
+        <v/>
       </c>
       <c r="S254" t="n" s="0">
-        <v>5.200000</v>
+        <v/>
       </c>
       <c r="T254" t="n" s="0">
-        <v>3.900000</v>
+        <v/>
       </c>
       <c r="U254" t="n" s="0">
-        <v>3.100000</v>
+        <v/>
       </c>
       <c r="V254" t="n" s="0">
-        <v>2.200000</v>
+        <v/>
       </c>
       <c r="W254" t="n" s="0">
-        <v>6.100000</v>
+        <v/>
       </c>
       <c r="X254" t="n" s="0">
-        <v>8.300000</v>
+        <v/>
       </c>
       <c r="Y254" t="n" s="0">
-        <v>20.210000</v>
+        <v/>
       </c>
       <c r="Z254" t="n" s="0">
-        <v>0.600000</v>
+        <v/>
       </c>
       <c r="AA254" t="n" s="0">
-        <v>0.220000</v>
+        <v/>
       </c>
       <c r="AB254" t="n" s="0">
-        <v>11.170000</v>
+        <v/>
       </c>
       <c r="AC254" t="n" s="0">
-        <v>0.620000</v>
+        <v/>
       </c>
     </row>
     <row r="255">
